--- a/database - circanual/percentage offspring/LL-Sire-percentage of offspring by parent birthmonth.xlsx
+++ b/database - circanual/percentage offspring/LL-Sire-percentage of offspring by parent birthmonth.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,9 +433,45 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>9.178743961352657</v>
+      </c>
+      <c r="C2">
+        <v>6.763285024154589</v>
+      </c>
+      <c r="D2">
+        <v>10.6280193236715</v>
+      </c>
+      <c r="E2">
+        <v>9.178743961352657</v>
+      </c>
+      <c r="F2">
+        <v>9.661835748792271</v>
+      </c>
+      <c r="G2">
+        <v>12.56038647342995</v>
+      </c>
+      <c r="H2">
+        <v>9.178743961352657</v>
+      </c>
+      <c r="I2">
+        <v>13.04347826086956</v>
+      </c>
+      <c r="J2">
+        <v>5.314009661835748</v>
+      </c>
+      <c r="K2">
+        <v>2.898550724637681</v>
+      </c>
+      <c r="L2">
+        <v>5.797101449275362</v>
+      </c>
+      <c r="M2">
+        <v>5.797101449275362</v>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -444,41 +480,44 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>19.27710843373494</v>
+        <v>10.25641025641026</v>
       </c>
       <c r="C3">
-        <v>9.638554216867471</v>
+        <v>10.25641025641026</v>
       </c>
       <c r="D3">
-        <v>6.024096385542169</v>
+        <v>8.974358974358974</v>
       </c>
       <c r="E3">
-        <v>7.228915662650602</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="F3">
-        <v>3.614457831325301</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="G3">
-        <v>3.614457831325301</v>
+        <v>8.974358974358974</v>
+      </c>
+      <c r="H3">
+        <v>5.128205128205128</v>
       </c>
       <c r="I3">
-        <v>4.819277108433735</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="J3">
-        <v>14.4578313253012</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="K3">
-        <v>13.25301204819277</v>
+        <v>14.1025641025641</v>
       </c>
       <c r="L3">
-        <v>4.819277108433735</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="M3">
-        <v>13.25301204819277</v>
+        <v>10.25641025641026</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -487,32 +526,44 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9.302325581395349</v>
+        <v>9.574468085106384</v>
       </c>
       <c r="C4">
-        <v>20.93023255813954</v>
+        <v>6.382978723404255</v>
+      </c>
+      <c r="D4">
+        <v>3.546099290780142</v>
+      </c>
+      <c r="E4">
+        <v>7.801418439716312</v>
+      </c>
+      <c r="F4">
+        <v>9.929078014184398</v>
+      </c>
+      <c r="G4">
+        <v>4.609929078014184</v>
       </c>
       <c r="H4">
-        <v>9.302325581395349</v>
+        <v>5.673758865248227</v>
       </c>
       <c r="I4">
-        <v>13.95348837209302</v>
+        <v>10.99290780141844</v>
       </c>
       <c r="J4">
-        <v>6.976744186046512</v>
+        <v>11.70212765957447</v>
       </c>
       <c r="K4">
-        <v>13.95348837209302</v>
+        <v>11.34751773049645</v>
       </c>
       <c r="L4">
-        <v>13.95348837209302</v>
+        <v>11.34751773049645</v>
       </c>
       <c r="M4">
-        <v>11.62790697674419</v>
+        <v>7.092198581560284</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -521,38 +572,44 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>8.737864077669903</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="C5">
-        <v>8.737864077669903</v>
+        <v>13.1578947368421</v>
+      </c>
+      <c r="D5">
+        <v>12.28070175438596</v>
       </c>
       <c r="E5">
-        <v>6.796116504854369</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="F5">
-        <v>2.912621359223301</v>
+        <v>12.28070175438596</v>
+      </c>
+      <c r="G5">
+        <v>6.140350877192982</v>
       </c>
       <c r="H5">
-        <v>6.796116504854369</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="I5">
-        <v>8.737864077669903</v>
+        <v>3.508771929824561</v>
       </c>
       <c r="J5">
-        <v>12.62135922330097</v>
+        <v>0.8771929824561403</v>
       </c>
       <c r="K5">
-        <v>15.53398058252427</v>
+        <v>3.508771929824561</v>
       </c>
       <c r="L5">
-        <v>13.59223300970874</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="M5">
-        <v>15.53398058252427</v>
+        <v>14.03508771929824</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -561,41 +618,44 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11.36363636363636</v>
+        <v>12.79069767441861</v>
+      </c>
+      <c r="C6">
+        <v>10.46511627906977</v>
       </c>
       <c r="D6">
-        <v>4.545454545454546</v>
+        <v>12.79069767441861</v>
       </c>
       <c r="E6">
-        <v>9.090909090909092</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="F6">
-        <v>5.681818181818182</v>
+        <v>9.302325581395349</v>
       </c>
       <c r="G6">
-        <v>4.545454545454546</v>
+        <v>4.651162790697675</v>
       </c>
       <c r="H6">
-        <v>5.681818181818182</v>
+        <v>4.651162790697675</v>
       </c>
       <c r="I6">
-        <v>10.22727272727273</v>
+        <v>4.651162790697675</v>
       </c>
       <c r="J6">
-        <v>3.409090909090909</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="K6">
-        <v>26.13636363636364</v>
+        <v>5.813953488372093</v>
       </c>
       <c r="L6">
-        <v>4.545454545454546</v>
+        <v>16.27906976744186</v>
       </c>
       <c r="M6">
-        <v>14.77272727272727</v>
+        <v>9.302325581395349</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -604,44 +664,44 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.263157894736842</v>
+        <v>16.02564102564103</v>
       </c>
       <c r="C7">
-        <v>8.771929824561402</v>
+        <v>4.487179487179487</v>
       </c>
       <c r="D7">
-        <v>5.263157894736842</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="E7">
-        <v>7.017543859649122</v>
+        <v>8.974358974358974</v>
       </c>
       <c r="F7">
-        <v>8.771929824561402</v>
+        <v>3.846153846153846</v>
       </c>
       <c r="G7">
-        <v>10.52631578947368</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="H7">
-        <v>10.52631578947368</v>
+        <v>8.974358974358974</v>
       </c>
       <c r="I7">
-        <v>15.78947368421053</v>
+        <v>5.769230769230769</v>
       </c>
       <c r="J7">
-        <v>3.508771929824561</v>
+        <v>9.615384615384617</v>
       </c>
       <c r="K7">
-        <v>5.263157894736842</v>
+        <v>5.128205128205128</v>
       </c>
       <c r="L7">
-        <v>12.28070175438596</v>
+        <v>16.02564102564103</v>
       </c>
       <c r="M7">
-        <v>7.017543859649122</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -649,9 +709,45 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>6.842105263157896</v>
+      </c>
+      <c r="C8">
+        <v>11.57894736842105</v>
+      </c>
+      <c r="D8">
+        <v>7.368421052631578</v>
+      </c>
+      <c r="E8">
+        <v>6.315789473684211</v>
+      </c>
+      <c r="F8">
+        <v>7.894736842105263</v>
+      </c>
+      <c r="G8">
+        <v>8.421052631578947</v>
+      </c>
+      <c r="H8">
+        <v>5.789473684210527</v>
+      </c>
+      <c r="I8">
+        <v>6.315789473684211</v>
+      </c>
+      <c r="J8">
+        <v>5.263157894736842</v>
+      </c>
+      <c r="K8">
+        <v>14.73684210526316</v>
+      </c>
+      <c r="L8">
+        <v>9.473684210526317</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -660,44 +756,44 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>9.090909090909092</v>
+        <v>14.74654377880184</v>
       </c>
       <c r="C9">
-        <v>11.36363636363636</v>
+        <v>5.069124423963133</v>
       </c>
       <c r="D9">
-        <v>9.090909090909092</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="E9">
-        <v>7.954545454545454</v>
+        <v>11.05990783410138</v>
       </c>
       <c r="F9">
-        <v>10.22727272727273</v>
+        <v>7.373271889400922</v>
       </c>
       <c r="G9">
-        <v>7.954545454545454</v>
+        <v>7.373271889400922</v>
       </c>
       <c r="H9">
-        <v>9.090909090909092</v>
+        <v>5.069124423963133</v>
       </c>
       <c r="I9">
-        <v>7.954545454545454</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="J9">
-        <v>7.954545454545454</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="K9">
-        <v>9.090909090909092</v>
+        <v>3.686635944700461</v>
       </c>
       <c r="L9">
-        <v>9.090909090909092</v>
+        <v>4.608294930875577</v>
       </c>
       <c r="M9">
-        <v>1.136363636363636</v>
+        <v>15.2073732718894</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -706,44 +802,44 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.084745762711865</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="C10">
-        <v>6.779661016949152</v>
+        <v>10.1010101010101</v>
       </c>
       <c r="D10">
-        <v>7.627118644067797</v>
+        <v>16.16161616161616</v>
       </c>
       <c r="E10">
-        <v>6.779661016949152</v>
+        <v>14.14141414141414</v>
       </c>
       <c r="F10">
-        <v>8.474576271186439</v>
+        <v>7.07070707070707</v>
       </c>
       <c r="G10">
-        <v>7.627118644067797</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="H10">
-        <v>10.16949152542373</v>
+        <v>5.05050505050505</v>
       </c>
       <c r="I10">
-        <v>11.01694915254237</v>
+        <v>4.040404040404041</v>
       </c>
       <c r="J10">
-        <v>11.01694915254237</v>
+        <v>7.07070707070707</v>
       </c>
       <c r="K10">
-        <v>9.322033898305085</v>
+        <v>4.040404040404041</v>
       </c>
       <c r="L10">
-        <v>9.322033898305085</v>
+        <v>5.05050505050505</v>
       </c>
       <c r="M10">
-        <v>6.779661016949152</v>
+        <v>12.12121212121212</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -752,32 +848,44 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>13.88888888888889</v>
+        <v>7.453416149068323</v>
       </c>
       <c r="C11">
-        <v>11.11111111111111</v>
+        <v>4.968944099378882</v>
+      </c>
+      <c r="D11">
+        <v>10.8695652173913</v>
       </c>
       <c r="E11">
-        <v>8.333333333333332</v>
+        <v>9.006211180124224</v>
+      </c>
+      <c r="F11">
+        <v>12.42236024844721</v>
+      </c>
+      <c r="G11">
+        <v>7.763975155279502</v>
+      </c>
+      <c r="H11">
+        <v>9.316770186335404</v>
       </c>
       <c r="I11">
-        <v>8.333333333333332</v>
+        <v>10.24844720496894</v>
       </c>
       <c r="J11">
-        <v>11.11111111111111</v>
+        <v>9.627329192546584</v>
       </c>
       <c r="K11">
-        <v>8.333333333333332</v>
+        <v>7.763975155279502</v>
       </c>
       <c r="L11">
-        <v>27.77777777777778</v>
+        <v>4.037267080745342</v>
       </c>
       <c r="M11">
-        <v>11.11111111111111</v>
+        <v>6.521739130434782</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -786,44 +894,44 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>11.11111111111111</v>
+        <v>6.315789473684211</v>
       </c>
       <c r="C12">
-        <v>9.62962962962963</v>
+        <v>9.473684210526317</v>
       </c>
       <c r="D12">
-        <v>2.962962962962963</v>
+        <v>7.368421052631578</v>
       </c>
       <c r="E12">
-        <v>4.444444444444445</v>
+        <v>11.57894736842105</v>
       </c>
       <c r="F12">
-        <v>3.703703703703703</v>
+        <v>7.368421052631578</v>
       </c>
       <c r="G12">
-        <v>11.85185185185185</v>
+        <v>11.57894736842105</v>
       </c>
       <c r="H12">
-        <v>10.37037037037037</v>
+        <v>13.68421052631579</v>
       </c>
       <c r="I12">
-        <v>5.925925925925926</v>
+        <v>6.315789473684211</v>
       </c>
       <c r="J12">
-        <v>11.11111111111111</v>
+        <v>4.210526315789473</v>
       </c>
       <c r="K12">
-        <v>11.85185185185185</v>
+        <v>8.421052631578947</v>
       </c>
       <c r="L12">
-        <v>5.185185185185185</v>
+        <v>4.210526315789473</v>
       </c>
       <c r="M12">
-        <v>11.85185185185185</v>
+        <v>9.473684210526317</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -832,35 +940,44 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>9.75609756097561</v>
+        <v>9.316770186335404</v>
       </c>
       <c r="C13">
-        <v>9.75609756097561</v>
+        <v>4.658385093167702</v>
       </c>
       <c r="D13">
-        <v>17.07317073170732</v>
+        <v>5.279503105590062</v>
       </c>
       <c r="E13">
-        <v>14.63414634146341</v>
+        <v>9.006211180124224</v>
       </c>
       <c r="F13">
-        <v>9.75609756097561</v>
+        <v>9.937888198757763</v>
+      </c>
+      <c r="G13">
+        <v>9.627329192546584</v>
+      </c>
+      <c r="H13">
+        <v>10.55900621118012</v>
       </c>
       <c r="I13">
-        <v>7.317073170731707</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="J13">
-        <v>4.878048780487805</v>
+        <v>6.521739130434782</v>
+      </c>
+      <c r="K13">
+        <v>10.24844720496894</v>
       </c>
       <c r="L13">
-        <v>7.317073170731707</v>
+        <v>11.80124223602484</v>
       </c>
       <c r="M13">
-        <v>19.51219512195122</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1982-1986</t>
+          <t>1988-1992</t>
         </is>
       </c>
     </row>
@@ -869,41 +986,44 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>9.58904109589041</v>
+        <v>7.598039215686274</v>
       </c>
       <c r="C14">
-        <v>6.164383561643835</v>
+        <v>6.372549019607843</v>
       </c>
       <c r="D14">
-        <v>15.06849315068493</v>
+        <v>4.901960784313726</v>
       </c>
       <c r="E14">
-        <v>8.904109589041095</v>
+        <v>5.392156862745098</v>
       </c>
       <c r="F14">
-        <v>8.904109589041095</v>
+        <v>7.84313725490196</v>
       </c>
       <c r="G14">
-        <v>13.6986301369863</v>
+        <v>11.02941176470588</v>
       </c>
       <c r="H14">
-        <v>8.21917808219178</v>
+        <v>10.7843137254902</v>
       </c>
       <c r="I14">
-        <v>12.32876712328767</v>
+        <v>12.99019607843137</v>
       </c>
       <c r="J14">
-        <v>6.849315068493151</v>
+        <v>10.04901960784314</v>
+      </c>
+      <c r="K14">
+        <v>7.352941176470589</v>
       </c>
       <c r="L14">
-        <v>5.47945205479452</v>
+        <v>6.372549019607843</v>
       </c>
       <c r="M14">
-        <v>4.794520547945205</v>
+        <v>9.313725490196079</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -912,44 +1032,44 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>10.25641025641026</v>
+        <v>11.61616161616162</v>
       </c>
       <c r="C15">
-        <v>10.25641025641026</v>
+        <v>3.535353535353535</v>
       </c>
       <c r="D15">
-        <v>8.974358974358974</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="E15">
-        <v>7.692307692307693</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="F15">
-        <v>1.282051282051282</v>
+        <v>5.05050505050505</v>
       </c>
       <c r="G15">
-        <v>8.974358974358974</v>
+        <v>8.080808080808081</v>
       </c>
       <c r="H15">
-        <v>5.128205128205128</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="I15">
-        <v>5.128205128205128</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="J15">
-        <v>12.82051282051282</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="K15">
-        <v>14.1025641025641</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L15">
-        <v>5.128205128205128</v>
+        <v>8.585858585858585</v>
       </c>
       <c r="M15">
-        <v>10.25641025641026</v>
+        <v>8.080808080808081</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -958,44 +1078,44 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>9.574468085106384</v>
+        <v>9.195402298850574</v>
       </c>
       <c r="C16">
-        <v>6.382978723404255</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="D16">
-        <v>3.546099290780142</v>
+        <v>5.747126436781609</v>
       </c>
       <c r="E16">
-        <v>7.801418439716312</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="F16">
-        <v>9.929078014184398</v>
+        <v>5.747126436781609</v>
       </c>
       <c r="G16">
-        <v>4.609929078014184</v>
+        <v>11.49425287356322</v>
       </c>
       <c r="H16">
-        <v>5.673758865248227</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="I16">
-        <v>10.99290780141844</v>
+        <v>12.64367816091954</v>
       </c>
       <c r="J16">
-        <v>11.70212765957447</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="K16">
-        <v>11.34751773049645</v>
+        <v>8.045977011494253</v>
       </c>
       <c r="L16">
-        <v>11.34751773049645</v>
+        <v>9.195402298850574</v>
       </c>
       <c r="M16">
-        <v>7.092198581560284</v>
+        <v>9.195402298850574</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1004,44 +1124,44 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>10.52631578947368</v>
+        <v>6.542056074766355</v>
       </c>
       <c r="C17">
-        <v>13.1578947368421</v>
+        <v>11.21495327102804</v>
       </c>
       <c r="D17">
-        <v>12.28070175438596</v>
+        <v>8.411214953271028</v>
       </c>
       <c r="E17">
-        <v>10.52631578947368</v>
+        <v>10.2803738317757</v>
       </c>
       <c r="F17">
-        <v>12.28070175438596</v>
+        <v>8.411214953271028</v>
       </c>
       <c r="G17">
-        <v>6.140350877192982</v>
+        <v>12.14953271028037</v>
       </c>
       <c r="H17">
-        <v>5.263157894736842</v>
+        <v>3.738317757009345</v>
       </c>
       <c r="I17">
-        <v>3.508771929824561</v>
+        <v>4.672897196261682</v>
       </c>
       <c r="J17">
-        <v>0.8771929824561403</v>
+        <v>12.14953271028037</v>
       </c>
       <c r="K17">
-        <v>3.508771929824561</v>
+        <v>1.869158878504673</v>
       </c>
       <c r="L17">
-        <v>7.894736842105263</v>
+        <v>10.2803738317757</v>
       </c>
       <c r="M17">
-        <v>14.03508771929824</v>
+        <v>10.2803738317757</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1050,44 +1170,35 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>12.79069767441861</v>
+        <v>7.608695652173914</v>
       </c>
       <c r="C18">
-        <v>10.46511627906977</v>
+        <v>9.782608695652174</v>
       </c>
       <c r="D18">
-        <v>12.79069767441861</v>
+        <v>14.1304347826087</v>
       </c>
       <c r="E18">
-        <v>2.325581395348837</v>
+        <v>7.608695652173914</v>
       </c>
       <c r="F18">
-        <v>9.302325581395349</v>
-      </c>
-      <c r="G18">
-        <v>4.651162790697675</v>
-      </c>
-      <c r="H18">
-        <v>4.651162790697675</v>
-      </c>
-      <c r="I18">
-        <v>4.651162790697675</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="J18">
-        <v>6.976744186046512</v>
+        <v>9.782608695652174</v>
       </c>
       <c r="K18">
-        <v>5.813953488372093</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="L18">
-        <v>16.27906976744186</v>
+        <v>10.8695652173913</v>
       </c>
       <c r="M18">
-        <v>9.302325581395349</v>
+        <v>16.30434782608696</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1096,44 +1207,44 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>15.64245810055866</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="C19">
-        <v>3.910614525139665</v>
+        <v>11.20448179271709</v>
       </c>
       <c r="D19">
-        <v>9.497206703910614</v>
+        <v>7.84313725490196</v>
       </c>
       <c r="E19">
-        <v>10.05586592178771</v>
+        <v>7.563025210084033</v>
       </c>
       <c r="F19">
-        <v>4.46927374301676</v>
+        <v>11.20448179271709</v>
       </c>
       <c r="G19">
-        <v>2.793296089385475</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="H19">
-        <v>7.82122905027933</v>
+        <v>7.84313725490196</v>
       </c>
       <c r="I19">
-        <v>7.262569832402235</v>
+        <v>7.282913165266107</v>
       </c>
       <c r="J19">
-        <v>8.379888268156424</v>
+        <v>8.683473389355742</v>
       </c>
       <c r="K19">
-        <v>4.46927374301676</v>
+        <v>7.84313725490196</v>
       </c>
       <c r="L19">
-        <v>13.96648044692737</v>
+        <v>8.403361344537815</v>
       </c>
       <c r="M19">
-        <v>11.73184357541899</v>
+        <v>5.602240896358544</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1142,44 +1253,44 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>6.842105263157896</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="C20">
-        <v>11.57894736842105</v>
+        <v>11.21281464530892</v>
       </c>
       <c r="D20">
-        <v>7.368421052631578</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E20">
-        <v>6.315789473684211</v>
+        <v>13.50114416475973</v>
       </c>
       <c r="F20">
-        <v>7.894736842105263</v>
+        <v>8.466819221967963</v>
       </c>
       <c r="G20">
-        <v>8.421052631578947</v>
+        <v>11.44164759725401</v>
       </c>
       <c r="H20">
-        <v>5.789473684210527</v>
+        <v>9.382151029748284</v>
       </c>
       <c r="I20">
-        <v>6.315789473684211</v>
+        <v>9.382151029748284</v>
       </c>
       <c r="J20">
-        <v>5.263157894736842</v>
+        <v>5.949656750572083</v>
       </c>
       <c r="K20">
-        <v>14.73684210526316</v>
+        <v>7.093821510297483</v>
       </c>
       <c r="L20">
-        <v>9.473684210526317</v>
+        <v>4.118993135011442</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>4.576659038901601</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1188,44 +1299,44 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>15.15151515151515</v>
+        <v>6.813186813186813</v>
       </c>
       <c r="C21">
-        <v>5.627705627705628</v>
+        <v>6.153846153846154</v>
       </c>
       <c r="D21">
-        <v>14.28571428571428</v>
+        <v>6.373626373626373</v>
       </c>
       <c r="E21">
-        <v>12.12121212121212</v>
+        <v>7.252747252747254</v>
       </c>
       <c r="F21">
-        <v>6.926406926406926</v>
+        <v>12.30769230769231</v>
       </c>
       <c r="G21">
-        <v>6.926406926406926</v>
+        <v>12.96703296703297</v>
       </c>
       <c r="H21">
-        <v>4.761904761904762</v>
+        <v>8.131868131868131</v>
       </c>
       <c r="I21">
-        <v>6.060606060606061</v>
+        <v>11.86813186813187</v>
       </c>
       <c r="J21">
-        <v>6.060606060606061</v>
+        <v>9.670329670329672</v>
       </c>
       <c r="K21">
-        <v>3.463203463203463</v>
+        <v>7.252747252747254</v>
       </c>
       <c r="L21">
-        <v>4.329004329004329</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="M21">
-        <v>14.28571428571428</v>
+        <v>5.494505494505495</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1234,44 +1345,44 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>10.47619047619048</v>
+        <v>5.791505791505791</v>
       </c>
       <c r="C22">
-        <v>13.33333333333333</v>
+        <v>9.845559845559846</v>
       </c>
       <c r="D22">
-        <v>15.23809523809524</v>
+        <v>7.335907335907336</v>
       </c>
       <c r="E22">
-        <v>9.523809523809524</v>
+        <v>9.16988416988417</v>
       </c>
       <c r="F22">
-        <v>7.61904761904762</v>
+        <v>8.880308880308881</v>
       </c>
       <c r="G22">
-        <v>3.80952380952381</v>
+        <v>9.362934362934363</v>
       </c>
       <c r="H22">
-        <v>9.523809523809524</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="I22">
-        <v>3.80952380952381</v>
+        <v>11.48648648648649</v>
       </c>
       <c r="J22">
-        <v>6.666666666666667</v>
+        <v>9.266409266409266</v>
       </c>
       <c r="K22">
-        <v>3.80952380952381</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L22">
-        <v>4.761904761904762</v>
+        <v>5.308880308880308</v>
       </c>
       <c r="M22">
-        <v>11.42857142857143</v>
+        <v>4.633204633204633</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1280,44 +1391,44 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>4.6875</v>
+        <v>2.467532467532468</v>
       </c>
       <c r="C23">
-        <v>5.46875</v>
+        <v>10.12987012987013</v>
       </c>
       <c r="D23">
-        <v>13.28125</v>
+        <v>12.46753246753247</v>
       </c>
       <c r="E23">
-        <v>11.71875</v>
+        <v>13.11688311688312</v>
       </c>
       <c r="F23">
-        <v>18.75</v>
+        <v>11.2987012987013</v>
       </c>
       <c r="G23">
-        <v>5.46875</v>
+        <v>10.64935064935065</v>
       </c>
       <c r="H23">
-        <v>7.03125</v>
+        <v>10.64935064935065</v>
       </c>
       <c r="I23">
-        <v>9.375</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="J23">
-        <v>7.03125</v>
+        <v>6.623376623376623</v>
       </c>
       <c r="K23">
-        <v>7.8125</v>
+        <v>5.064935064935066</v>
       </c>
       <c r="L23">
-        <v>3.90625</v>
+        <v>4.025974025974026</v>
       </c>
       <c r="M23">
-        <v>5.46875</v>
+        <v>4.935064935064935</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1326,44 +1437,44 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>3.571428571428571</v>
+        <v>2.592592592592593</v>
       </c>
       <c r="C24">
-        <v>7.142857142857142</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="D24">
-        <v>7.142857142857142</v>
+        <v>10.74074074074074</v>
       </c>
       <c r="E24">
-        <v>16.07142857142857</v>
+        <v>10.37037037037037</v>
       </c>
       <c r="F24">
-        <v>12.5</v>
+        <v>11.48148148148148</v>
       </c>
       <c r="G24">
-        <v>10.71428571428571</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="H24">
-        <v>8.928571428571429</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="I24">
-        <v>5.357142857142857</v>
+        <v>6.296296296296296</v>
       </c>
       <c r="J24">
-        <v>5.357142857142857</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="K24">
-        <v>7.142857142857142</v>
+        <v>8.148148148148149</v>
       </c>
       <c r="L24">
-        <v>7.142857142857142</v>
+        <v>5.185185185185185</v>
       </c>
       <c r="M24">
-        <v>8.928571428571429</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1372,44 +1483,44 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>8.333333333333332</v>
+        <v>6.470588235294119</v>
       </c>
       <c r="C25">
-        <v>7.142857142857142</v>
+        <v>4.411764705882353</v>
       </c>
       <c r="D25">
-        <v>6.547619047619048</v>
+        <v>5.294117647058823</v>
       </c>
       <c r="E25">
-        <v>8.928571428571429</v>
+        <v>6.176470588235294</v>
       </c>
       <c r="F25">
-        <v>7.142857142857142</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="G25">
-        <v>10.11904761904762</v>
+        <v>12.05882352941176</v>
       </c>
       <c r="H25">
-        <v>7.738095238095238</v>
+        <v>12.05882352941176</v>
       </c>
       <c r="I25">
-        <v>6.547619047619048</v>
+        <v>13.23529411764706</v>
       </c>
       <c r="J25">
-        <v>7.142857142857142</v>
+        <v>9.705882352941178</v>
       </c>
       <c r="K25">
-        <v>11.30952380952381</v>
+        <v>9.705882352941178</v>
       </c>
       <c r="L25">
-        <v>15.47619047619048</v>
+        <v>7.941176470588235</v>
       </c>
       <c r="M25">
-        <v>3.571428571428571</v>
+        <v>7.058823529411764</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>1987-1991</t>
+          <t>1993-1997</t>
         </is>
       </c>
     </row>
@@ -1418,44 +1529,26 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>7.675906183368871</v>
-      </c>
-      <c r="C26">
-        <v>6.609808102345416</v>
-      </c>
-      <c r="D26">
-        <v>4.264392324093817</v>
-      </c>
-      <c r="E26">
-        <v>5.970149253731343</v>
-      </c>
-      <c r="F26">
-        <v>8.315565031982942</v>
-      </c>
-      <c r="G26">
-        <v>10.87420042643923</v>
-      </c>
-      <c r="H26">
-        <v>10.87420042643923</v>
+        <v>34.78260869565217</v>
       </c>
       <c r="I26">
-        <v>13.21961620469083</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="J26">
-        <v>8.955223880597014</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="K26">
-        <v>7.675906183368871</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="L26">
-        <v>6.396588486140725</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="M26">
-        <v>9.168443496801707</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1463,45 +1556,24 @@
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27">
-        <v>11.61616161616162</v>
-      </c>
-      <c r="C27">
-        <v>3.535353535353535</v>
-      </c>
-      <c r="D27">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="E27">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="F27">
-        <v>5.05050505050505</v>
-      </c>
-      <c r="G27">
-        <v>8.080808080808081</v>
-      </c>
       <c r="H27">
-        <v>11.11111111111111</v>
+        <v>24.24242424242424</v>
       </c>
       <c r="I27">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="J27">
+        <v>12.12121212121212</v>
+      </c>
+      <c r="K27">
+        <v>21.21212121212121</v>
+      </c>
+      <c r="L27">
         <v>9.090909090909092</v>
       </c>
-      <c r="J27">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="K27">
-        <v>13.63636363636363</v>
-      </c>
-      <c r="L27">
-        <v>8.585858585858585</v>
-      </c>
-      <c r="M27">
-        <v>8.080808080808081</v>
-      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1510,44 +1582,26 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>9.195402298850574</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="C28">
-        <v>6.896551724137931</v>
-      </c>
-      <c r="D28">
-        <v>5.747126436781609</v>
-      </c>
-      <c r="E28">
-        <v>6.896551724137931</v>
-      </c>
-      <c r="F28">
-        <v>5.747126436781609</v>
-      </c>
-      <c r="G28">
-        <v>11.49425287356322</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="H28">
-        <v>10.3448275862069</v>
-      </c>
-      <c r="I28">
-        <v>12.64367816091954</v>
-      </c>
-      <c r="J28">
-        <v>4.597701149425287</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="K28">
-        <v>8.045977011494253</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L28">
-        <v>9.195402298850574</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="M28">
-        <v>9.195402298850574</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1556,44 +1610,44 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>6.542056074766355</v>
+        <v>11.0655737704918</v>
       </c>
       <c r="C29">
-        <v>11.21495327102804</v>
+        <v>8.60655737704918</v>
       </c>
       <c r="D29">
-        <v>8.411214953271028</v>
+        <v>3.688524590163934</v>
       </c>
       <c r="E29">
-        <v>10.2803738317757</v>
+        <v>8.60655737704918</v>
       </c>
       <c r="F29">
-        <v>8.411214953271028</v>
+        <v>8.60655737704918</v>
       </c>
       <c r="G29">
-        <v>12.14953271028037</v>
+        <v>7.786885245901639</v>
       </c>
       <c r="H29">
-        <v>3.738317757009345</v>
+        <v>11.88524590163934</v>
       </c>
       <c r="I29">
-        <v>4.672897196261682</v>
+        <v>6.967213114754098</v>
       </c>
       <c r="J29">
-        <v>12.14953271028037</v>
+        <v>6.557377049180328</v>
       </c>
       <c r="K29">
-        <v>1.869158878504673</v>
+        <v>9.016393442622951</v>
       </c>
       <c r="L29">
-        <v>10.2803738317757</v>
+        <v>9.836065573770492</v>
       </c>
       <c r="M29">
-        <v>10.2803738317757</v>
+        <v>7.377049180327869</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1602,35 +1656,44 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>7.608695652173914</v>
+        <v>8.650519031141869</v>
       </c>
       <c r="C30">
-        <v>9.782608695652174</v>
+        <v>10.55363321799308</v>
       </c>
       <c r="D30">
-        <v>14.1304347826087</v>
+        <v>6.920415224913495</v>
       </c>
       <c r="E30">
-        <v>7.608695652173914</v>
+        <v>9.86159169550173</v>
       </c>
       <c r="F30">
-        <v>13.04347826086956</v>
+        <v>5.88235294117647</v>
+      </c>
+      <c r="G30">
+        <v>8.996539792387544</v>
+      </c>
+      <c r="H30">
+        <v>7.26643598615917</v>
+      </c>
+      <c r="I30">
+        <v>6.57439446366782</v>
       </c>
       <c r="J30">
-        <v>9.782608695652174</v>
+        <v>7.439446366782007</v>
       </c>
       <c r="K30">
-        <v>10.8695652173913</v>
+        <v>6.747404844290658</v>
       </c>
       <c r="L30">
-        <v>10.8695652173913</v>
+        <v>11.5916955017301</v>
       </c>
       <c r="M30">
-        <v>16.30434782608696</v>
+        <v>9.515570934256056</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1639,44 +1702,44 @@
         <v>6</v>
       </c>
       <c r="B31">
-        <v>4.761904761904762</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="C31">
-        <v>11.20448179271709</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="D31">
-        <v>7.84313725490196</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="E31">
-        <v>7.563025210084033</v>
+        <v>8.055555555555555</v>
       </c>
       <c r="F31">
-        <v>11.20448179271709</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="G31">
-        <v>11.76470588235294</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="H31">
-        <v>7.84313725490196</v>
+        <v>6.388888888888888</v>
       </c>
       <c r="I31">
-        <v>7.282913165266107</v>
+        <v>7.222222222222221</v>
       </c>
       <c r="J31">
-        <v>8.683473389355742</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="K31">
-        <v>7.84313725490196</v>
+        <v>10</v>
       </c>
       <c r="L31">
-        <v>8.403361344537815</v>
+        <v>9.722222222222223</v>
       </c>
       <c r="M31">
-        <v>5.602240896358544</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1685,44 +1748,44 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <v>4.347826086956522</v>
+        <v>11.1969111969112</v>
       </c>
       <c r="C32">
-        <v>11.21281464530892</v>
+        <v>7.335907335907336</v>
       </c>
       <c r="D32">
-        <v>10.52631578947368</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="E32">
-        <v>13.50114416475973</v>
+        <v>10.42471042471042</v>
       </c>
       <c r="F32">
-        <v>8.466819221967963</v>
+        <v>11.96911196911197</v>
       </c>
       <c r="G32">
-        <v>11.44164759725401</v>
+        <v>12.74131274131274</v>
       </c>
       <c r="H32">
-        <v>9.382151029748284</v>
+        <v>7.335907335907336</v>
       </c>
       <c r="I32">
-        <v>9.382151029748284</v>
+        <v>3.861003861003861</v>
       </c>
       <c r="J32">
-        <v>5.949656750572083</v>
+        <v>6.563706563706563</v>
       </c>
       <c r="K32">
-        <v>7.093821510297483</v>
+        <v>6.563706563706563</v>
       </c>
       <c r="L32">
-        <v>4.118993135011442</v>
+        <v>4.633204633204633</v>
       </c>
       <c r="M32">
-        <v>4.576659038901601</v>
+        <v>3.861003861003861</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1731,44 +1794,29 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>6.811145510835913</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="C33">
-        <v>6.811145510835913</v>
-      </c>
-      <c r="D33">
-        <v>8.668730650154799</v>
-      </c>
-      <c r="E33">
-        <v>7.120743034055728</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="F33">
-        <v>12.69349845201238</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="G33">
-        <v>11.45510835913313</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="H33">
-        <v>9.287925696594428</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="I33">
-        <v>10.21671826625387</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="J33">
-        <v>9.287925696594428</v>
-      </c>
-      <c r="K33">
-        <v>7.430340557275541</v>
-      </c>
-      <c r="L33">
-        <v>4.953560371517028</v>
-      </c>
-      <c r="M33">
-        <v>5.263157894736842</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1776,45 +1824,36 @@
       <c r="A34">
         <v>9</v>
       </c>
-      <c r="B34">
-        <v>4.088586030664395</v>
-      </c>
-      <c r="C34">
-        <v>10.22146507666099</v>
-      </c>
       <c r="D34">
-        <v>10.39182282793867</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="E34">
-        <v>13.62862010221465</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="F34">
-        <v>11.75468483816014</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="G34">
-        <v>12.94718909710392</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="H34">
-        <v>9.028960817717206</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="I34">
-        <v>10.73253833049404</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="J34">
-        <v>6.814310051107325</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="K34">
-        <v>5.45144804088586</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L34">
-        <v>1.873935264054515</v>
-      </c>
-      <c r="M34">
-        <v>3.066439522998297</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1823,44 +1862,44 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>3.83419689119171</v>
+        <v>9.836065573770492</v>
       </c>
       <c r="C35">
-        <v>9.015544041450777</v>
+        <v>5.573770491803279</v>
       </c>
       <c r="D35">
-        <v>11.81347150259067</v>
+        <v>7.213114754098362</v>
       </c>
       <c r="E35">
-        <v>11.91709844559585</v>
+        <v>8.852459016393443</v>
       </c>
       <c r="F35">
-        <v>10.77720207253886</v>
+        <v>7.868852459016394</v>
       </c>
       <c r="G35">
-        <v>10.36269430051813</v>
+        <v>9.508196721311474</v>
       </c>
       <c r="H35">
-        <v>10.67357512953368</v>
+        <v>7.868852459016394</v>
       </c>
       <c r="I35">
-        <v>9.015544041450777</v>
+        <v>8.852459016393443</v>
       </c>
       <c r="J35">
-        <v>7.564766839378239</v>
+        <v>7.213114754098362</v>
       </c>
       <c r="K35">
-        <v>5.595854922279793</v>
+        <v>10.16393442622951</v>
       </c>
       <c r="L35">
-        <v>4.041450777202073</v>
+        <v>7.213114754098362</v>
       </c>
       <c r="M35">
-        <v>5.388601036269431</v>
+        <v>9.836065573770492</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1869,44 +1908,44 @@
         <v>11</v>
       </c>
       <c r="B36">
-        <v>3.374233128834356</v>
+        <v>6.153846153846154</v>
       </c>
       <c r="C36">
-        <v>7.975460122699387</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="D36">
-        <v>9.815950920245399</v>
+        <v>13.07692307692308</v>
       </c>
       <c r="E36">
-        <v>10.42944785276074</v>
+        <v>14.61538461538462</v>
       </c>
       <c r="F36">
-        <v>11.04294478527607</v>
+        <v>10.76923076923077</v>
       </c>
       <c r="G36">
-        <v>8.588957055214724</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H36">
-        <v>10.42944785276074</v>
+        <v>5.384615384615385</v>
       </c>
       <c r="I36">
-        <v>7.05521472392638</v>
+        <v>13.84615384615385</v>
       </c>
       <c r="J36">
-        <v>12.26993865030675</v>
+        <v>4.615384615384616</v>
       </c>
       <c r="K36">
-        <v>7.975460122699387</v>
+        <v>9.230769230769232</v>
       </c>
       <c r="L36">
-        <v>4.294478527607362</v>
+        <v>8.461538461538462</v>
       </c>
       <c r="M36">
-        <v>6.748466257668712</v>
+        <v>4.615384615384616</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1915,44 +1954,44 @@
         <v>12</v>
       </c>
       <c r="B37">
-        <v>7.584830339321358</v>
+        <v>10.41214750542299</v>
       </c>
       <c r="C37">
-        <v>3.592814371257485</v>
+        <v>8.459869848156181</v>
       </c>
       <c r="D37">
-        <v>4.790419161676647</v>
+        <v>5.856832971800434</v>
       </c>
       <c r="E37">
-        <v>6.986027944111776</v>
+        <v>7.809110629067245</v>
       </c>
       <c r="F37">
-        <v>8.383233532934131</v>
+        <v>8.459869848156181</v>
       </c>
       <c r="G37">
-        <v>11.77644710578842</v>
+        <v>4.772234273318872</v>
       </c>
       <c r="H37">
-        <v>12.5748502994012</v>
+        <v>7.158351409978309</v>
       </c>
       <c r="I37">
-        <v>12.375249500998</v>
+        <v>10.41214750542299</v>
       </c>
       <c r="J37">
-        <v>8.383233532934131</v>
+        <v>8.026030368763557</v>
       </c>
       <c r="K37">
-        <v>9.3812375249501</v>
+        <v>9.110629067245119</v>
       </c>
       <c r="L37">
-        <v>7.784431137724551</v>
+        <v>10.19522776572668</v>
       </c>
       <c r="M37">
-        <v>6.387225548902195</v>
+        <v>9.327548806941431</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>1992-1996</t>
+          <t>1998-2002</t>
         </is>
       </c>
     </row>
@@ -1961,26 +2000,44 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>34.78260869565217</v>
+        <v>9.164420485175203</v>
+      </c>
+      <c r="C38">
+        <v>9.973045822102426</v>
+      </c>
+      <c r="D38">
+        <v>5.390835579514826</v>
+      </c>
+      <c r="E38">
+        <v>7.277628032345014</v>
+      </c>
+      <c r="F38">
+        <v>5.660377358490567</v>
+      </c>
+      <c r="G38">
+        <v>6.46900269541779</v>
+      </c>
+      <c r="H38">
+        <v>7.008086253369273</v>
       </c>
       <c r="I38">
-        <v>4.347826086956522</v>
+        <v>10.78167115902965</v>
       </c>
       <c r="J38">
-        <v>8.695652173913043</v>
+        <v>7.547169811320755</v>
       </c>
       <c r="K38">
-        <v>26.08695652173913</v>
+        <v>10.51212938005391</v>
       </c>
       <c r="L38">
-        <v>13.04347826086956</v>
+        <v>10.51212938005391</v>
       </c>
       <c r="M38">
-        <v>13.04347826086956</v>
+        <v>9.703504043126685</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -1988,24 +2045,45 @@
       <c r="A39">
         <v>2</v>
       </c>
+      <c r="B39">
+        <v>11.37123745819398</v>
+      </c>
+      <c r="C39">
+        <v>3.344481605351171</v>
+      </c>
+      <c r="D39">
+        <v>5.016722408026756</v>
+      </c>
+      <c r="E39">
+        <v>6.688963210702341</v>
+      </c>
+      <c r="F39">
+        <v>9.364548494983277</v>
+      </c>
+      <c r="G39">
+        <v>7.692307692307693</v>
+      </c>
       <c r="H39">
-        <v>24.24242424242424</v>
+        <v>6.020066889632107</v>
       </c>
       <c r="I39">
-        <v>33.33333333333333</v>
+        <v>5.68561872909699</v>
       </c>
       <c r="J39">
-        <v>12.12121212121212</v>
+        <v>12.37458193979933</v>
       </c>
       <c r="K39">
-        <v>21.21212121212121</v>
+        <v>12.70903010033445</v>
       </c>
       <c r="L39">
-        <v>9.090909090909092</v>
+        <v>8.026755852842809</v>
+      </c>
+      <c r="M39">
+        <v>11.7056856187291</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2014,26 +2092,44 @@
         <v>3</v>
       </c>
       <c r="B40">
-        <v>5.555555555555555</v>
+        <v>5.583756345177665</v>
       </c>
       <c r="C40">
-        <v>16.66666666666666</v>
+        <v>6.598984771573605</v>
+      </c>
+      <c r="D40">
+        <v>5.245346869712352</v>
+      </c>
+      <c r="E40">
+        <v>4.060913705583756</v>
+      </c>
+      <c r="F40">
+        <v>5.414551607445008</v>
+      </c>
+      <c r="G40">
+        <v>8.29103214890017</v>
       </c>
       <c r="H40">
-        <v>16.66666666666666</v>
+        <v>11.16751269035533</v>
+      </c>
+      <c r="I40">
+        <v>14.04399323181049</v>
+      </c>
+      <c r="J40">
+        <v>13.53637901861252</v>
       </c>
       <c r="K40">
-        <v>27.77777777777778</v>
+        <v>10.65989847715736</v>
       </c>
       <c r="L40">
-        <v>16.66666666666666</v>
+        <v>5.245346869712352</v>
       </c>
       <c r="M40">
-        <v>16.66666666666666</v>
+        <v>10.15228426395939</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2042,44 +2138,44 @@
         <v>4</v>
       </c>
       <c r="B41">
-        <v>11.0655737704918</v>
+        <v>8.778625954198473</v>
       </c>
       <c r="C41">
-        <v>8.60655737704918</v>
+        <v>6.488549618320611</v>
       </c>
       <c r="D41">
-        <v>3.688524590163934</v>
+        <v>11.45038167938931</v>
       </c>
       <c r="E41">
-        <v>8.60655737704918</v>
+        <v>6.488549618320611</v>
       </c>
       <c r="F41">
-        <v>8.60655737704918</v>
+        <v>7.251908396946565</v>
       </c>
       <c r="G41">
-        <v>7.786885245901639</v>
+        <v>3.053435114503817</v>
       </c>
       <c r="H41">
-        <v>11.88524590163934</v>
+        <v>7.251908396946565</v>
       </c>
       <c r="I41">
-        <v>6.967213114754098</v>
+        <v>8.396946564885496</v>
       </c>
       <c r="J41">
-        <v>6.557377049180328</v>
+        <v>12.21374045801527</v>
       </c>
       <c r="K41">
-        <v>9.016393442622951</v>
+        <v>11.83206106870229</v>
       </c>
       <c r="L41">
-        <v>9.836065573770492</v>
+        <v>7.251908396946565</v>
       </c>
       <c r="M41">
-        <v>7.377049180327869</v>
+        <v>9.541984732824428</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2088,44 +2184,44 @@
         <v>5</v>
       </c>
       <c r="B42">
-        <v>8.067542213883677</v>
+        <v>9.45945945945946</v>
       </c>
       <c r="C42">
-        <v>9.75609756097561</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="D42">
-        <v>6.566604127579738</v>
+        <v>9.45945945945946</v>
       </c>
       <c r="E42">
-        <v>9.943714821763603</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="F42">
-        <v>6.378986866791744</v>
+        <v>14.86486486486486</v>
       </c>
       <c r="G42">
-        <v>9.75609756097561</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="H42">
-        <v>7.879924953095685</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="I42">
-        <v>7.129455909943714</v>
+        <v>4.054054054054054</v>
       </c>
       <c r="J42">
-        <v>8.067542213883677</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="K42">
-        <v>6.75422138836773</v>
+        <v>4.054054054054054</v>
       </c>
       <c r="L42">
-        <v>11.25703564727955</v>
+        <v>14.86486486486486</v>
       </c>
       <c r="M42">
-        <v>8.442776735459661</v>
+        <v>6.756756756756757</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2134,44 +2230,44 @@
         <v>6</v>
       </c>
       <c r="B43">
-        <v>8.936170212765958</v>
+        <v>10.30042918454936</v>
       </c>
       <c r="C43">
-        <v>8.936170212765958</v>
+        <v>8.154506437768241</v>
       </c>
       <c r="D43">
-        <v>8.51063829787234</v>
+        <v>8.583690987124463</v>
       </c>
       <c r="E43">
-        <v>10.63829787234043</v>
+        <v>4.291845493562231</v>
       </c>
       <c r="F43">
-        <v>9.787234042553191</v>
+        <v>9.012875536480687</v>
       </c>
       <c r="G43">
-        <v>4.680851063829787</v>
+        <v>6.437768240343347</v>
       </c>
       <c r="H43">
-        <v>8.085106382978724</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="I43">
-        <v>8.51063829787234</v>
+        <v>4.721030042918455</v>
       </c>
       <c r="J43">
-        <v>9.361702127659575</v>
+        <v>9.442060085836911</v>
       </c>
       <c r="K43">
-        <v>9.787234042553191</v>
+        <v>14.16309012875537</v>
       </c>
       <c r="L43">
-        <v>5.531914893617021</v>
+        <v>13.73390557939914</v>
       </c>
       <c r="M43">
-        <v>7.234042553191489</v>
+        <v>6.437768240343347</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2180,44 +2276,38 @@
         <v>7</v>
       </c>
       <c r="B44">
-        <v>11.1969111969112</v>
+        <v>13.13131313131313</v>
       </c>
       <c r="C44">
-        <v>7.335907335907336</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="D44">
-        <v>13.51351351351351</v>
+        <v>8.080808080808081</v>
       </c>
       <c r="E44">
-        <v>10.42471042471042</v>
+        <v>16.16161616161616</v>
       </c>
       <c r="F44">
-        <v>11.96911196911197</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="G44">
-        <v>12.74131274131274</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H44">
-        <v>7.335907335907336</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="I44">
-        <v>3.861003861003861</v>
+        <v>8.080808080808081</v>
       </c>
       <c r="J44">
-        <v>6.563706563706563</v>
+        <v>7.07070707070707</v>
       </c>
       <c r="K44">
-        <v>6.563706563706563</v>
-      </c>
-      <c r="L44">
-        <v>4.633204633204633</v>
-      </c>
-      <c r="M44">
-        <v>3.861003861003861</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2226,44 +2316,44 @@
         <v>8</v>
       </c>
       <c r="B45">
-        <v>8.441558441558442</v>
+        <v>8.945686900958465</v>
       </c>
       <c r="C45">
-        <v>7.142857142857142</v>
+        <v>7.348242811501597</v>
       </c>
       <c r="D45">
-        <v>0.6493506493506493</v>
+        <v>6.70926517571885</v>
       </c>
       <c r="E45">
-        <v>6.493506493506493</v>
+        <v>9.265175718849839</v>
       </c>
       <c r="F45">
-        <v>11.03896103896104</v>
+        <v>10.54313099041534</v>
       </c>
       <c r="G45">
-        <v>15.58441558441558</v>
+        <v>14.05750798722045</v>
       </c>
       <c r="H45">
-        <v>5.194805194805195</v>
+        <v>10.54313099041534</v>
       </c>
       <c r="I45">
-        <v>15.58441558441558</v>
+        <v>8.626198083067091</v>
       </c>
       <c r="J45">
-        <v>12.33766233766234</v>
+        <v>9.584664536741213</v>
       </c>
       <c r="K45">
-        <v>5.844155844155844</v>
+        <v>3.833865814696486</v>
       </c>
       <c r="L45">
-        <v>6.493506493506493</v>
+        <v>6.070287539936102</v>
       </c>
       <c r="M45">
-        <v>5.194805194805195</v>
+        <v>4.472843450479233</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2271,45 +2361,9 @@
       <c r="A46">
         <v>9</v>
       </c>
-      <c r="B46">
-        <v>7.18562874251497</v>
-      </c>
-      <c r="C46">
-        <v>8.383233532934131</v>
-      </c>
-      <c r="D46">
-        <v>4.39121756487026</v>
-      </c>
-      <c r="E46">
-        <v>5.189620758483033</v>
-      </c>
-      <c r="F46">
-        <v>6.387225548902195</v>
-      </c>
-      <c r="G46">
-        <v>5.588822355289421</v>
-      </c>
-      <c r="H46">
-        <v>12.5748502994012</v>
-      </c>
-      <c r="I46">
-        <v>12.375249500998</v>
-      </c>
-      <c r="J46">
-        <v>11.97604790419162</v>
-      </c>
-      <c r="K46">
-        <v>10.77844311377246</v>
-      </c>
-      <c r="L46">
-        <v>9.181636726546905</v>
-      </c>
-      <c r="M46">
-        <v>5.988023952095809</v>
-      </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2318,44 +2372,44 @@
         <v>10</v>
       </c>
       <c r="B47">
-        <v>9.836065573770492</v>
+        <v>3.16622691292876</v>
       </c>
       <c r="C47">
-        <v>5.573770491803279</v>
+        <v>6.33245382585752</v>
       </c>
       <c r="D47">
-        <v>7.213114754098362</v>
+        <v>8.970976253298153</v>
       </c>
       <c r="E47">
-        <v>8.852459016393443</v>
+        <v>8.707124010554089</v>
       </c>
       <c r="F47">
-        <v>7.868852459016394</v>
+        <v>15.30343007915567</v>
       </c>
       <c r="G47">
-        <v>9.508196721311474</v>
+        <v>12.40105540897098</v>
       </c>
       <c r="H47">
-        <v>7.868852459016394</v>
+        <v>10.29023746701847</v>
       </c>
       <c r="I47">
-        <v>8.852459016393443</v>
+        <v>9.762532981530343</v>
       </c>
       <c r="J47">
-        <v>7.213114754098362</v>
+        <v>8.443271767810026</v>
       </c>
       <c r="K47">
-        <v>10.16393442622951</v>
+        <v>7.387862796833773</v>
       </c>
       <c r="L47">
-        <v>7.213114754098362</v>
+        <v>4.221635883905013</v>
       </c>
       <c r="M47">
-        <v>9.836065573770492</v>
+        <v>5.013192612137203</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2364,44 +2418,44 @@
         <v>11</v>
       </c>
       <c r="B48">
-        <v>6.153846153846154</v>
+        <v>3.807615230460922</v>
       </c>
       <c r="C48">
-        <v>1.538461538461539</v>
+        <v>4.809619238476954</v>
       </c>
       <c r="D48">
-        <v>13.07692307692308</v>
+        <v>9.819639278557114</v>
       </c>
       <c r="E48">
-        <v>14.61538461538462</v>
+        <v>7.615230460921844</v>
       </c>
       <c r="F48">
-        <v>10.76923076923077</v>
+        <v>10.22044088176353</v>
       </c>
       <c r="G48">
-        <v>7.692307692307693</v>
+        <v>14.42885771543086</v>
       </c>
       <c r="H48">
-        <v>5.384615384615385</v>
+        <v>9.418837675350701</v>
       </c>
       <c r="I48">
-        <v>13.84615384615385</v>
+        <v>11.82364729458918</v>
       </c>
       <c r="J48">
-        <v>4.615384615384616</v>
+        <v>9.018036072144289</v>
       </c>
       <c r="K48">
-        <v>9.230769230769232</v>
+        <v>6.813627254509018</v>
       </c>
       <c r="L48">
-        <v>8.461538461538462</v>
+        <v>6.012024048096192</v>
       </c>
       <c r="M48">
-        <v>4.615384615384616</v>
+        <v>6.212424849699398</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2410,44 +2464,44 @@
         <v>12</v>
       </c>
       <c r="B49">
-        <v>10.60606060606061</v>
+        <v>7.526881720430108</v>
       </c>
       <c r="C49">
-        <v>8.585858585858585</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="D49">
-        <v>5.303030303030303</v>
+        <v>9.13978494623656</v>
       </c>
       <c r="E49">
-        <v>7.575757575757576</v>
+        <v>8.60215053763441</v>
       </c>
       <c r="F49">
-        <v>8.333333333333332</v>
+        <v>7.526881720430108</v>
       </c>
       <c r="G49">
-        <v>4.292929292929292</v>
+        <v>7.526881720430108</v>
       </c>
       <c r="H49">
-        <v>6.818181818181817</v>
+        <v>4.301075268817205</v>
       </c>
       <c r="I49">
-        <v>10.85858585858586</v>
+        <v>7.526881720430108</v>
       </c>
       <c r="J49">
-        <v>9.343434343434344</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="K49">
-        <v>9.343434343434344</v>
+        <v>11.82795698924731</v>
       </c>
       <c r="L49">
-        <v>10.35353535353535</v>
+        <v>12.36559139784946</v>
       </c>
       <c r="M49">
-        <v>8.585858585858585</v>
+        <v>9.13978494623656</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>1997-2001</t>
+          <t>2003-2007</t>
         </is>
       </c>
     </row>
@@ -2456,44 +2510,44 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>9.89399293286219</v>
+        <v>11.57894736842105</v>
       </c>
       <c r="C50">
-        <v>12.36749116607774</v>
+        <v>2.105263157894737</v>
       </c>
       <c r="D50">
-        <v>5.653710247349824</v>
+        <v>11.57894736842105</v>
       </c>
       <c r="E50">
-        <v>6.36042402826855</v>
+        <v>2.105263157894737</v>
       </c>
       <c r="F50">
-        <v>3.53356890459364</v>
+        <v>4.210526315789473</v>
       </c>
       <c r="G50">
-        <v>6.36042402826855</v>
+        <v>6.315789473684211</v>
       </c>
       <c r="H50">
-        <v>6.36042402826855</v>
+        <v>7.368421052631578</v>
       </c>
       <c r="I50">
-        <v>9.89399293286219</v>
+        <v>6.315789473684211</v>
       </c>
       <c r="J50">
-        <v>6.36042402826855</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="K50">
-        <v>10.60070671378092</v>
+        <v>11.57894736842105</v>
       </c>
       <c r="L50">
-        <v>12.01413427561837</v>
+        <v>12.63157894736842</v>
       </c>
       <c r="M50">
-        <v>10.60070671378092</v>
+        <v>8.421052631578947</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2502,44 +2556,44 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>11.33333333333333</v>
+        <v>9.216589861751153</v>
       </c>
       <c r="C51">
-        <v>3.333333333333333</v>
+        <v>7.219662058371735</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>7.834101382488479</v>
       </c>
       <c r="E51">
-        <v>6.666666666666667</v>
+        <v>3.686635944700461</v>
       </c>
       <c r="F51">
-        <v>9.333333333333334</v>
+        <v>7.834101382488479</v>
       </c>
       <c r="G51">
-        <v>7.666666666666666</v>
+        <v>4.147465437788019</v>
       </c>
       <c r="H51">
-        <v>6</v>
+        <v>5.376344086021505</v>
       </c>
       <c r="I51">
-        <v>5.666666666666666</v>
+        <v>2.764976958525346</v>
       </c>
       <c r="J51">
-        <v>12.33333333333333</v>
+        <v>16.58986175115207</v>
       </c>
       <c r="K51">
-        <v>13</v>
+        <v>12.44239631336406</v>
       </c>
       <c r="L51">
-        <v>8</v>
+        <v>14.1321044546851</v>
       </c>
       <c r="M51">
-        <v>11.66666666666667</v>
+        <v>8.755760368663594</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2548,44 +2602,44 @@
         <v>3</v>
       </c>
       <c r="B52">
-        <v>4.989154013015185</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="C52">
-        <v>5.639913232104121</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="D52">
-        <v>4.55531453362256</v>
+        <v>5</v>
       </c>
       <c r="E52">
-        <v>2.169197396963124</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F52">
-        <v>4.989154013015185</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="G52">
-        <v>7.592190889370933</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="H52">
-        <v>12.3644251626898</v>
+        <v>4.166666666666666</v>
       </c>
       <c r="I52">
-        <v>16.48590021691974</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="J52">
-        <v>13.88286334056399</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="K52">
-        <v>12.58134490238612</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="L52">
-        <v>5.206073752711497</v>
+        <v>12.5</v>
       </c>
       <c r="M52">
-        <v>9.544468546637743</v>
+        <v>15</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2594,44 +2648,44 @@
         <v>4</v>
       </c>
       <c r="B53">
-        <v>6.896551724137931</v>
+        <v>14.7239263803681</v>
       </c>
       <c r="C53">
-        <v>6.03448275862069</v>
+        <v>6.748466257668712</v>
       </c>
       <c r="D53">
-        <v>6.896551724137931</v>
+        <v>9.202453987730062</v>
       </c>
       <c r="E53">
-        <v>8.620689655172415</v>
+        <v>10.42944785276074</v>
       </c>
       <c r="F53">
-        <v>7.758620689655173</v>
+        <v>5.521472392638037</v>
       </c>
       <c r="G53">
-        <v>1.724137931034483</v>
+        <v>1.226993865030675</v>
       </c>
       <c r="H53">
-        <v>5.172413793103448</v>
+        <v>10.42944785276074</v>
       </c>
       <c r="I53">
-        <v>11.20689655172414</v>
+        <v>6.134969325153374</v>
       </c>
       <c r="J53">
-        <v>16.37931034482759</v>
+        <v>4.294478527607362</v>
       </c>
       <c r="K53">
-        <v>12.06896551724138</v>
+        <v>11.04294478527607</v>
       </c>
       <c r="L53">
-        <v>11.20689655172414</v>
+        <v>10.42944785276074</v>
       </c>
       <c r="M53">
-        <v>6.03448275862069</v>
+        <v>9.815950920245399</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2640,32 +2694,44 @@
         <v>5</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>8.899297423887589</v>
       </c>
       <c r="C54">
-        <v>18</v>
+        <v>8.899297423887589</v>
       </c>
       <c r="D54">
-        <v>10</v>
+        <v>8.430913348946136</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>9.601873536299765</v>
+      </c>
+      <c r="F54">
+        <v>8.196721311475409</v>
+      </c>
+      <c r="G54">
+        <v>5.85480093676815</v>
+      </c>
+      <c r="H54">
+        <v>4.215456674473068</v>
+      </c>
+      <c r="I54">
+        <v>5.386416861826698</v>
       </c>
       <c r="J54">
-        <v>4</v>
+        <v>6.323185011709602</v>
       </c>
       <c r="K54">
-        <v>12</v>
+        <v>9.367681498829041</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>10.07025761124122</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>14.75409836065574</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2674,44 +2740,44 @@
         <v>6</v>
       </c>
       <c r="B55">
-        <v>13.12849162011173</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="C55">
-        <v>7.262569832402235</v>
+        <v>4.285714285714286</v>
       </c>
       <c r="D55">
-        <v>9.217877094972067</v>
+        <v>10</v>
       </c>
       <c r="E55">
-        <v>3.910614525139665</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="F55">
-        <v>8.938547486033519</v>
+        <v>9.047619047619047</v>
       </c>
       <c r="G55">
-        <v>7.262569832402235</v>
+        <v>7.61904761904762</v>
       </c>
       <c r="H55">
-        <v>4.189944134078212</v>
+        <v>5.238095238095238</v>
       </c>
       <c r="I55">
-        <v>4.748603351955307</v>
+        <v>9.047619047619047</v>
       </c>
       <c r="J55">
-        <v>6.145251396648044</v>
+        <v>10</v>
       </c>
       <c r="K55">
-        <v>12.84916201117318</v>
+        <v>10</v>
       </c>
       <c r="L55">
-        <v>15.08379888268156</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="M55">
-        <v>7.262569832402235</v>
+        <v>7.61904761904762</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2720,38 +2786,44 @@
         <v>7</v>
       </c>
       <c r="B56">
-        <v>13.13131313131313</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="C56">
-        <v>18.18181818181818</v>
+        <v>9.696969696969697</v>
       </c>
       <c r="D56">
-        <v>8.080808080808081</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="E56">
-        <v>16.16161616161616</v>
+        <v>7.272727272727272</v>
       </c>
       <c r="F56">
+        <v>8.484848484848486</v>
+      </c>
+      <c r="G56">
+        <v>7.878787878787878</v>
+      </c>
+      <c r="H56">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="I56">
         <v>6.060606060606061</v>
       </c>
-      <c r="G56">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="H56">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="I56">
-        <v>8.080808080808081</v>
-      </c>
       <c r="J56">
-        <v>7.07070707070707</v>
+        <v>7.272727272727272</v>
       </c>
       <c r="K56">
         <v>3.03030303030303</v>
       </c>
+      <c r="L56">
+        <v>12.12121212121212</v>
+      </c>
+      <c r="M56">
+        <v>12.12121212121212</v>
+      </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2760,44 +2832,44 @@
         <v>8</v>
       </c>
       <c r="B57">
-        <v>8.945686900958465</v>
+        <v>5.02092050209205</v>
       </c>
       <c r="C57">
-        <v>7.348242811501597</v>
+        <v>5.857740585774058</v>
       </c>
       <c r="D57">
-        <v>6.70926517571885</v>
+        <v>6.694560669456067</v>
       </c>
       <c r="E57">
-        <v>9.265175718849839</v>
+        <v>11.71548117154812</v>
       </c>
       <c r="F57">
-        <v>10.54313099041534</v>
+        <v>16.31799163179916</v>
       </c>
       <c r="G57">
-        <v>14.05750798722045</v>
+        <v>11.29707112970711</v>
       </c>
       <c r="H57">
-        <v>10.54313099041534</v>
+        <v>10.4602510460251</v>
       </c>
       <c r="I57">
-        <v>8.626198083067091</v>
+        <v>8.786610878661087</v>
       </c>
       <c r="J57">
-        <v>9.584664536741213</v>
+        <v>8.368200836820083</v>
       </c>
       <c r="K57">
-        <v>3.833865814696486</v>
+        <v>9.623430962343097</v>
       </c>
       <c r="L57">
-        <v>6.070287539936102</v>
+        <v>1.673640167364017</v>
       </c>
       <c r="M57">
-        <v>4.472843450479233</v>
+        <v>4.184100418410042</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2805,9 +2877,45 @@
       <c r="A58">
         <v>9</v>
       </c>
+      <c r="B58">
+        <v>7.758620689655173</v>
+      </c>
+      <c r="C58">
+        <v>5.172413793103448</v>
+      </c>
+      <c r="D58">
+        <v>6.03448275862069</v>
+      </c>
+      <c r="E58">
+        <v>6.896551724137931</v>
+      </c>
+      <c r="F58">
+        <v>7.758620689655173</v>
+      </c>
+      <c r="G58">
+        <v>15.51724137931035</v>
+      </c>
+      <c r="H58">
+        <v>10.3448275862069</v>
+      </c>
+      <c r="I58">
+        <v>20.68965517241379</v>
+      </c>
+      <c r="J58">
+        <v>6.03448275862069</v>
+      </c>
+      <c r="K58">
+        <v>5.172413793103448</v>
+      </c>
+      <c r="L58">
+        <v>5.172413793103448</v>
+      </c>
+      <c r="M58">
+        <v>3.448275862068965</v>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2816,44 +2924,41 @@
         <v>10</v>
       </c>
       <c r="B59">
-        <v>0.423728813559322</v>
-      </c>
-      <c r="C59">
-        <v>4.661016949152542</v>
+        <v>3.816793893129771</v>
       </c>
       <c r="D59">
-        <v>8.050847457627118</v>
+        <v>4.580152671755725</v>
       </c>
       <c r="E59">
-        <v>9.322033898305085</v>
+        <v>9.923664122137405</v>
       </c>
       <c r="F59">
-        <v>16.94915254237288</v>
+        <v>12.21374045801527</v>
       </c>
       <c r="G59">
-        <v>15.25423728813559</v>
+        <v>12.97709923664122</v>
       </c>
       <c r="H59">
-        <v>8.898305084745763</v>
+        <v>7.633587786259542</v>
       </c>
       <c r="I59">
-        <v>9.745762711864407</v>
+        <v>15.26717557251908</v>
       </c>
       <c r="J59">
-        <v>9.322033898305085</v>
+        <v>16.79389312977099</v>
       </c>
       <c r="K59">
-        <v>9.745762711864407</v>
+        <v>5.343511450381679</v>
       </c>
       <c r="L59">
-        <v>2.542372881355933</v>
+        <v>4.580152671755725</v>
       </c>
       <c r="M59">
-        <v>5.084745762711865</v>
+        <v>6.870229007633588</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2862,44 +2967,44 @@
         <v>11</v>
       </c>
       <c r="B60">
-        <v>4.137931034482759</v>
+        <v>3.870967741935484</v>
       </c>
       <c r="C60">
-        <v>5.517241379310345</v>
+        <v>1.290322580645161</v>
       </c>
       <c r="D60">
-        <v>8.96551724137931</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="E60">
-        <v>7.816091954022989</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="F60">
-        <v>10.11494252873563</v>
+        <v>13.5483870967742</v>
       </c>
       <c r="G60">
-        <v>13.33333333333333</v>
+        <v>12.25806451612903</v>
       </c>
       <c r="H60">
-        <v>8.275862068965518</v>
+        <v>16.7741935483871</v>
       </c>
       <c r="I60">
-        <v>10.3448275862069</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="J60">
-        <v>10.3448275862069</v>
+        <v>7.419354838709677</v>
       </c>
       <c r="K60">
-        <v>7.586206896551724</v>
+        <v>9.032258064516128</v>
       </c>
       <c r="L60">
-        <v>6.896551724137931</v>
+        <v>6.129032258064516</v>
       </c>
       <c r="M60">
-        <v>6.666666666666667</v>
+        <v>3.870967741935484</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2908,44 +3013,44 @@
         <v>12</v>
       </c>
       <c r="B61">
-        <v>7.968127490039841</v>
+        <v>4.191616766467066</v>
       </c>
       <c r="C61">
-        <v>6.772908366533864</v>
+        <v>1.197604790419162</v>
       </c>
       <c r="D61">
-        <v>9.163346613545817</v>
+        <v>4.191616766467066</v>
       </c>
       <c r="E61">
-        <v>8.764940239043826</v>
+        <v>14.37125748502994</v>
       </c>
       <c r="F61">
-        <v>7.968127490039841</v>
+        <v>13.77245508982036</v>
       </c>
       <c r="G61">
-        <v>7.569721115537849</v>
+        <v>13.77245508982036</v>
       </c>
       <c r="H61">
-        <v>5.577689243027888</v>
+        <v>15.5688622754491</v>
       </c>
       <c r="I61">
-        <v>7.569721115537849</v>
+        <v>11.37724550898204</v>
       </c>
       <c r="J61">
-        <v>5.97609561752988</v>
+        <v>10.17964071856287</v>
       </c>
       <c r="K61">
-        <v>10.75697211155378</v>
+        <v>1.197604790419162</v>
       </c>
       <c r="L61">
-        <v>11.55378486055777</v>
+        <v>3.592814371257485</v>
       </c>
       <c r="M61">
-        <v>10.35856573705179</v>
+        <v>6.58682634730539</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2002-2006</t>
+          <t>2008-2012</t>
         </is>
       </c>
     </row>
@@ -2954,44 +3059,38 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>10</v>
+        <v>2.205882352941177</v>
       </c>
       <c r="C62">
-        <v>2.352941176470588</v>
+        <v>9.558823529411764</v>
       </c>
       <c r="D62">
-        <v>8.823529411764707</v>
+        <v>2.941176470588235</v>
       </c>
       <c r="E62">
-        <v>6.470588235294119</v>
-      </c>
-      <c r="F62">
-        <v>8.823529411764707</v>
-      </c>
-      <c r="G62">
-        <v>7.058823529411764</v>
+        <v>0.7352941176470588</v>
       </c>
       <c r="H62">
-        <v>7.058823529411764</v>
+        <v>10.29411764705882</v>
       </c>
       <c r="I62">
-        <v>10</v>
+        <v>11.02941176470588</v>
       </c>
       <c r="J62">
-        <v>12.35294117647059</v>
+        <v>18.38235294117647</v>
       </c>
       <c r="K62">
-        <v>8.823529411764707</v>
+        <v>13.23529411764706</v>
       </c>
       <c r="L62">
-        <v>10</v>
+        <v>20.58823529411764</v>
       </c>
       <c r="M62">
-        <v>8.235294117647058</v>
+        <v>11.02941176470588</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3000,44 +3099,44 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>9.268292682926829</v>
+        <v>6.914893617021277</v>
       </c>
       <c r="C63">
-        <v>6.991869918699186</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="D63">
-        <v>7.642276422764227</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="E63">
-        <v>3.414634146341464</v>
+        <v>9.042553191489363</v>
       </c>
       <c r="F63">
-        <v>7.642276422764227</v>
+        <v>6.914893617021277</v>
       </c>
       <c r="G63">
-        <v>4.065040650406504</v>
+        <v>8.51063829787234</v>
       </c>
       <c r="H63">
-        <v>5.365853658536586</v>
+        <v>5.851063829787234</v>
       </c>
       <c r="I63">
-        <v>2.926829268292683</v>
+        <v>7.978723404255319</v>
       </c>
       <c r="J63">
-        <v>17.5609756097561</v>
+        <v>12.23404255319149</v>
       </c>
       <c r="K63">
-        <v>12.68292682926829</v>
+        <v>5.319148936170213</v>
       </c>
       <c r="L63">
-        <v>14.14634146341463</v>
+        <v>10.1063829787234</v>
       </c>
       <c r="M63">
-        <v>8.292682926829269</v>
+        <v>7.978723404255319</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3046,44 +3145,44 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <v>6.800000000000001</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="C64">
-        <v>7.199999999999999</v>
+        <v>5.627705627705628</v>
       </c>
       <c r="D64">
-        <v>6.4</v>
+        <v>12.12121212121212</v>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>7.792207792207792</v>
       </c>
       <c r="F64">
-        <v>5.2</v>
+        <v>11.25541125541126</v>
       </c>
       <c r="G64">
-        <v>6.4</v>
+        <v>10.82251082251082</v>
       </c>
       <c r="H64">
-        <v>5.600000000000001</v>
+        <v>11.68831168831169</v>
       </c>
       <c r="I64">
-        <v>4.399999999999999</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="J64">
-        <v>17.6</v>
+        <v>10.82251082251082</v>
       </c>
       <c r="K64">
-        <v>12</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L64">
-        <v>8.799999999999999</v>
+        <v>5.627705627705628</v>
       </c>
       <c r="M64">
-        <v>13.6</v>
+        <v>5.194805194805195</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3092,44 +3191,44 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>15.23809523809524</v>
+        <v>5.13595166163142</v>
       </c>
       <c r="C65">
-        <v>6.190476190476191</v>
+        <v>3.323262839879154</v>
       </c>
       <c r="D65">
-        <v>13.33333333333333</v>
+        <v>6.948640483383686</v>
       </c>
       <c r="E65">
-        <v>5.238095238095238</v>
+        <v>12.68882175226586</v>
       </c>
       <c r="F65">
-        <v>6.190476190476191</v>
+        <v>9.667673716012084</v>
       </c>
       <c r="G65">
-        <v>3.80952380952381</v>
+        <v>5.740181268882175</v>
       </c>
       <c r="H65">
-        <v>8.571428571428571</v>
+        <v>10.8761329305136</v>
       </c>
       <c r="I65">
-        <v>6.190476190476191</v>
+        <v>11.17824773413897</v>
       </c>
       <c r="J65">
-        <v>7.61904761904762</v>
+        <v>9.063444108761329</v>
       </c>
       <c r="K65">
-        <v>11.42857142857143</v>
+        <v>6.042296072507553</v>
       </c>
       <c r="L65">
-        <v>5.714285714285714</v>
+        <v>9.969788519637463</v>
       </c>
       <c r="M65">
-        <v>10.47619047619048</v>
+        <v>9.365558912386707</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3138,44 +3237,44 @@
         <v>5</v>
       </c>
       <c r="B66">
-        <v>9.07258064516129</v>
+        <v>2.21606648199446</v>
       </c>
       <c r="C66">
-        <v>8.669354838709678</v>
+        <v>6.094182825484765</v>
       </c>
       <c r="D66">
-        <v>8.669354838709678</v>
+        <v>9.141274238227147</v>
       </c>
       <c r="E66">
-        <v>9.879032258064516</v>
+        <v>9.97229916897507</v>
       </c>
       <c r="F66">
-        <v>9.274193548387096</v>
+        <v>11.0803324099723</v>
       </c>
       <c r="G66">
-        <v>5.443548387096774</v>
+        <v>9.141274238227147</v>
       </c>
       <c r="H66">
-        <v>5.241935483870968</v>
+        <v>7.756232686980609</v>
       </c>
       <c r="I66">
-        <v>5.241935483870968</v>
+        <v>11.0803324099723</v>
       </c>
       <c r="J66">
-        <v>5.846774193548387</v>
+        <v>11.63434903047091</v>
       </c>
       <c r="K66">
-        <v>8.064516129032258</v>
+        <v>9.418282548476455</v>
       </c>
       <c r="L66">
-        <v>10.88709677419355</v>
+        <v>6.094182825484765</v>
       </c>
       <c r="M66">
-        <v>13.70967741935484</v>
+        <v>6.371191135734072</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3184,44 +3283,44 @@
         <v>6</v>
       </c>
       <c r="B67">
-        <v>5.69620253164557</v>
+        <v>5.3125</v>
       </c>
       <c r="C67">
-        <v>3.79746835443038</v>
+        <v>3.125</v>
       </c>
       <c r="D67">
-        <v>12.0253164556962</v>
+        <v>12.5</v>
       </c>
       <c r="E67">
-        <v>7.59493670886076</v>
+        <v>8.75</v>
       </c>
       <c r="F67">
-        <v>8.860759493670885</v>
+        <v>11.25</v>
       </c>
       <c r="G67">
-        <v>8.227848101265822</v>
+        <v>10.9375</v>
       </c>
       <c r="H67">
-        <v>3.79746835443038</v>
+        <v>10.625</v>
       </c>
       <c r="I67">
-        <v>9.49367088607595</v>
+        <v>8.4375</v>
       </c>
       <c r="J67">
-        <v>10.75949367088608</v>
+        <v>5.625</v>
       </c>
       <c r="K67">
-        <v>12.0253164556962</v>
+        <v>11.5625</v>
       </c>
       <c r="L67">
-        <v>11.39240506329114</v>
+        <v>5.9375</v>
       </c>
       <c r="M67">
-        <v>6.329113924050633</v>
+        <v>5.9375</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3230,44 +3329,44 @@
         <v>7</v>
       </c>
       <c r="B68">
-        <v>3.370786516853932</v>
+        <v>5.5</v>
       </c>
       <c r="C68">
-        <v>3.370786516853932</v>
+        <v>8</v>
       </c>
       <c r="D68">
-        <v>19.10112359550562</v>
+        <v>5.5</v>
       </c>
       <c r="E68">
-        <v>8.988764044943821</v>
+        <v>5</v>
       </c>
       <c r="F68">
-        <v>7.865168539325842</v>
+        <v>6.5</v>
       </c>
       <c r="G68">
-        <v>8.988764044943821</v>
+        <v>6.5</v>
       </c>
       <c r="H68">
-        <v>7.865168539325842</v>
+        <v>8.5</v>
       </c>
       <c r="I68">
-        <v>10.1123595505618</v>
+        <v>14</v>
       </c>
       <c r="J68">
-        <v>11.23595505617977</v>
+        <v>8</v>
       </c>
       <c r="K68">
-        <v>4.49438202247191</v>
+        <v>15</v>
       </c>
       <c r="L68">
-        <v>8.988764044943821</v>
+        <v>8.5</v>
       </c>
       <c r="M68">
-        <v>5.617977528089887</v>
+        <v>9</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3275,45 +3374,18 @@
       <c r="A69">
         <v>8</v>
       </c>
-      <c r="B69">
-        <v>5.02092050209205</v>
-      </c>
-      <c r="C69">
-        <v>5.857740585774058</v>
-      </c>
       <c r="D69">
-        <v>6.694560669456067</v>
-      </c>
-      <c r="E69">
-        <v>11.71548117154812</v>
+        <v>25</v>
       </c>
       <c r="F69">
-        <v>16.31799163179916</v>
-      </c>
-      <c r="G69">
-        <v>11.29707112970711</v>
+        <v>25</v>
       </c>
       <c r="H69">
-        <v>10.4602510460251</v>
-      </c>
-      <c r="I69">
-        <v>8.786610878661087</v>
-      </c>
-      <c r="J69">
-        <v>8.368200836820083</v>
-      </c>
-      <c r="K69">
-        <v>9.623430962343097</v>
-      </c>
-      <c r="L69">
-        <v>1.673640167364017</v>
-      </c>
-      <c r="M69">
-        <v>4.184100418410042</v>
+        <v>50</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3321,9 +3393,45 @@
       <c r="A70">
         <v>9</v>
       </c>
+      <c r="B70">
+        <v>6.683804627249357</v>
+      </c>
+      <c r="C70">
+        <v>10.2827763496144</v>
+      </c>
+      <c r="D70">
+        <v>8.740359897172237</v>
+      </c>
+      <c r="E70">
+        <v>8.483290488431876</v>
+      </c>
+      <c r="F70">
+        <v>8.740359897172237</v>
+      </c>
+      <c r="G70">
+        <v>7.712082262210797</v>
+      </c>
+      <c r="H70">
+        <v>9.254498714652955</v>
+      </c>
+      <c r="I70">
+        <v>10.53984575835476</v>
+      </c>
+      <c r="J70">
+        <v>8.226221079691516</v>
+      </c>
+      <c r="K70">
+        <v>6.169665809768637</v>
+      </c>
+      <c r="L70">
+        <v>7.197943444730077</v>
+      </c>
+      <c r="M70">
+        <v>7.969151670951156</v>
+      </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3332,44 +3440,41 @@
         <v>10</v>
       </c>
       <c r="B71">
-        <v>5.263157894736842</v>
+        <v>2.73224043715847</v>
       </c>
       <c r="C71">
-        <v>6.220095693779904</v>
+        <v>12.02185792349727</v>
       </c>
       <c r="D71">
-        <v>8.612440191387559</v>
+        <v>10.92896174863388</v>
       </c>
       <c r="E71">
-        <v>9.569377990430622</v>
+        <v>13.11475409836066</v>
       </c>
       <c r="F71">
-        <v>14.83253588516746</v>
+        <v>12.02185792349727</v>
       </c>
       <c r="G71">
-        <v>8.612440191387559</v>
+        <v>9.289617486338798</v>
       </c>
       <c r="H71">
-        <v>10.04784688995215</v>
+        <v>15.30054644808743</v>
       </c>
       <c r="I71">
-        <v>13.39712918660287</v>
+        <v>10.92896174863388</v>
       </c>
       <c r="J71">
-        <v>11.48325358851675</v>
+        <v>6.010928961748633</v>
       </c>
       <c r="K71">
-        <v>2.392344497607656</v>
+        <v>3.278688524590164</v>
       </c>
       <c r="L71">
-        <v>4.784688995215311</v>
-      </c>
-      <c r="M71">
-        <v>4.784688995215311</v>
+        <v>4.371584699453552</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3378,44 +3483,44 @@
         <v>11</v>
       </c>
       <c r="B72">
-        <v>3.651685393258427</v>
+        <v>7.920792079207921</v>
       </c>
       <c r="C72">
-        <v>1.123595505617978</v>
+        <v>5.940594059405941</v>
       </c>
       <c r="D72">
-        <v>7.02247191011236</v>
+        <v>8.415841584158416</v>
       </c>
       <c r="E72">
-        <v>7.865168539325842</v>
+        <v>4.95049504950495</v>
       </c>
       <c r="F72">
-        <v>13.48314606741573</v>
+        <v>11.38613861386139</v>
       </c>
       <c r="G72">
-        <v>12.92134831460674</v>
+        <v>10.3960396039604</v>
       </c>
       <c r="H72">
-        <v>17.69662921348315</v>
+        <v>10.3960396039604</v>
       </c>
       <c r="I72">
-        <v>15.1685393258427</v>
+        <v>9.900990099009901</v>
       </c>
       <c r="J72">
-        <v>5.056179775280898</v>
+        <v>8.91089108910891</v>
       </c>
       <c r="K72">
-        <v>7.02247191011236</v>
+        <v>8.415841584158416</v>
       </c>
       <c r="L72">
-        <v>5.337078651685393</v>
+        <v>4.455445544554455</v>
       </c>
       <c r="M72">
-        <v>3.651685393258427</v>
+        <v>8.91089108910891</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3423,45 +3528,39 @@
       <c r="A73">
         <v>12</v>
       </c>
-      <c r="B73">
-        <v>3.03030303030303</v>
-      </c>
       <c r="C73">
-        <v>1.515151515151515</v>
+        <v>9.859154929577464</v>
       </c>
       <c r="D73">
-        <v>4.545454545454546</v>
+        <v>11.26760563380282</v>
       </c>
       <c r="E73">
-        <v>14.39393939393939</v>
+        <v>7.042253521126761</v>
       </c>
       <c r="F73">
-        <v>11.36363636363636</v>
+        <v>11.26760563380282</v>
       </c>
       <c r="G73">
-        <v>15.15151515151515</v>
+        <v>16.90140845070422</v>
       </c>
       <c r="H73">
-        <v>15.90909090909091</v>
+        <v>12.67605633802817</v>
       </c>
       <c r="I73">
-        <v>12.87878787878788</v>
+        <v>12.67605633802817</v>
       </c>
       <c r="J73">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="K73">
-        <v>1.515151515151515</v>
+        <v>8.450704225352112</v>
       </c>
       <c r="L73">
-        <v>3.787878787878788</v>
+        <v>4.225352112676056</v>
       </c>
       <c r="M73">
-        <v>7.575757575757576</v>
+        <v>5.633802816901409</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2007-2011</t>
+          <t>2013-2017</t>
         </is>
       </c>
     </row>
@@ -3470,38 +3569,44 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>2.013422818791946</v>
+        <v>9.508196721311474</v>
       </c>
       <c r="C74">
-        <v>8.724832214765101</v>
+        <v>13.11475409836066</v>
       </c>
       <c r="D74">
-        <v>2.684563758389262</v>
+        <v>12.78688524590164</v>
       </c>
       <c r="E74">
-        <v>0.6711409395973155</v>
+        <v>11.80327868852459</v>
+      </c>
+      <c r="F74">
+        <v>7.540983606557377</v>
+      </c>
+      <c r="G74">
+        <v>6.557377049180328</v>
       </c>
       <c r="H74">
-        <v>11.40939597315436</v>
+        <v>6.557377049180328</v>
       </c>
       <c r="I74">
-        <v>10.73825503355705</v>
+        <v>4.918032786885246</v>
       </c>
       <c r="J74">
-        <v>19.46308724832215</v>
+        <v>6.885245901639345</v>
       </c>
       <c r="K74">
-        <v>15.43624161073826</v>
+        <v>6.557377049180328</v>
       </c>
       <c r="L74">
-        <v>18.79194630872483</v>
+        <v>6.885245901639345</v>
       </c>
       <c r="M74">
-        <v>10.06711409395973</v>
+        <v>6.885245901639345</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3510,44 +3615,41 @@
         <v>2</v>
       </c>
       <c r="B75">
-        <v>7.142857142857142</v>
+        <v>5.05050505050505</v>
       </c>
       <c r="C75">
-        <v>8.928571428571429</v>
+        <v>7.07070707070707</v>
       </c>
       <c r="D75">
-        <v>10.71428571428571</v>
+        <v>12.12121212121212</v>
       </c>
       <c r="E75">
-        <v>8.928571428571429</v>
+        <v>17.17171717171717</v>
       </c>
       <c r="F75">
-        <v>7.589285714285714</v>
+        <v>16.16161616161616</v>
       </c>
       <c r="G75">
-        <v>8.035714285714286</v>
+        <v>4.040404040404041</v>
       </c>
       <c r="H75">
-        <v>5.803571428571429</v>
+        <v>8.080808080808081</v>
       </c>
       <c r="I75">
-        <v>6.696428571428571</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="J75">
-        <v>10.26785714285714</v>
+        <v>7.07070707070707</v>
       </c>
       <c r="K75">
-        <v>5.803571428571429</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L75">
-        <v>10.71428571428571</v>
-      </c>
-      <c r="M75">
-        <v>9.375</v>
+        <v>2.02020202020202</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3555,45 +3657,21 @@
       <c r="A76">
         <v>3</v>
       </c>
-      <c r="B76">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="C76">
-        <v>5.627705627705628</v>
-      </c>
       <c r="D76">
-        <v>12.12121212121212</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="E76">
-        <v>7.792207792207792</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="F76">
-        <v>11.25541125541126</v>
-      </c>
-      <c r="G76">
-        <v>10.82251082251082</v>
-      </c>
-      <c r="H76">
-        <v>11.68831168831169</v>
-      </c>
-      <c r="I76">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="J76">
-        <v>10.82251082251082</v>
-      </c>
-      <c r="K76">
-        <v>9.523809523809524</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L76">
-        <v>5.627705627705628</v>
-      </c>
-      <c r="M76">
-        <v>5.194805194805195</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3602,44 +3680,44 @@
         <v>4</v>
       </c>
       <c r="B77">
-        <v>5.581395348837209</v>
+        <v>19.53125</v>
       </c>
       <c r="C77">
-        <v>4.418604651162791</v>
+        <v>2.34375</v>
       </c>
       <c r="D77">
-        <v>7.441860465116279</v>
+        <v>10.15625</v>
       </c>
       <c r="E77">
-        <v>12.79069767441861</v>
+        <v>7.8125</v>
       </c>
       <c r="F77">
-        <v>8.837209302325581</v>
+        <v>10.9375</v>
       </c>
       <c r="G77">
-        <v>4.418604651162791</v>
+        <v>3.90625</v>
       </c>
       <c r="H77">
-        <v>11.16279069767442</v>
+        <v>5.46875</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>6.25</v>
       </c>
       <c r="J77">
-        <v>7.906976744186046</v>
+        <v>5.46875</v>
       </c>
       <c r="K77">
-        <v>7.209302325581396</v>
+        <v>9.375</v>
       </c>
       <c r="L77">
-        <v>10.23255813953488</v>
+        <v>7.8125</v>
       </c>
       <c r="M77">
-        <v>10</v>
+        <v>10.9375</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3648,44 +3726,38 @@
         <v>5</v>
       </c>
       <c r="B78">
-        <v>2.21606648199446</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="C78">
-        <v>6.094182825484765</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="D78">
-        <v>9.141274238227147</v>
+        <v>6.349206349206349</v>
       </c>
       <c r="E78">
-        <v>9.97229916897507</v>
+        <v>6.349206349206349</v>
       </c>
       <c r="F78">
-        <v>11.0803324099723</v>
+        <v>3.174603174603174</v>
       </c>
       <c r="G78">
-        <v>9.141274238227147</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H78">
-        <v>7.756232686980609</v>
+        <v>12.6984126984127</v>
       </c>
       <c r="I78">
-        <v>11.0803324099723</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="J78">
-        <v>11.63434903047091</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="K78">
-        <v>9.418282548476455</v>
-      </c>
-      <c r="L78">
-        <v>6.094182825484765</v>
-      </c>
-      <c r="M78">
-        <v>6.371191135734072</v>
+        <v>7.936507936507936</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3693,45 +3765,39 @@
       <c r="A79">
         <v>6</v>
       </c>
-      <c r="B79">
-        <v>5.913978494623656</v>
-      </c>
       <c r="C79">
-        <v>3.494623655913978</v>
+        <v>5.494505494505495</v>
       </c>
       <c r="D79">
-        <v>11.29032258064516</v>
+        <v>5.494505494505495</v>
       </c>
       <c r="E79">
-        <v>9.13978494623656</v>
-      </c>
-      <c r="F79">
-        <v>11.02150537634409</v>
+        <v>5.494505494505495</v>
       </c>
       <c r="G79">
-        <v>10.21505376344086</v>
+        <v>2.197802197802198</v>
       </c>
       <c r="H79">
-        <v>10.48387096774194</v>
+        <v>6.593406593406594</v>
       </c>
       <c r="I79">
-        <v>8.333333333333332</v>
+        <v>20.87912087912088</v>
       </c>
       <c r="J79">
-        <v>5.913978494623656</v>
+        <v>9.890109890109891</v>
       </c>
       <c r="K79">
-        <v>10.48387096774194</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L79">
-        <v>6.989247311827956</v>
+        <v>13.18681318681319</v>
       </c>
       <c r="M79">
-        <v>6.720430107526881</v>
+        <v>16.48351648351648</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3740,44 +3806,44 @@
         <v>7</v>
       </c>
       <c r="B80">
-        <v>9.210526315789473</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="C80">
-        <v>17.10526315789474</v>
+        <v>11.93548387096774</v>
       </c>
       <c r="D80">
-        <v>6.578947368421052</v>
+        <v>4.193548387096775</v>
       </c>
       <c r="E80">
-        <v>5.263157894736842</v>
+        <v>8.38709677419355</v>
       </c>
       <c r="F80">
-        <v>9.210526315789473</v>
+        <v>5.483870967741936</v>
       </c>
       <c r="G80">
-        <v>6.578947368421052</v>
+        <v>8.709677419354838</v>
       </c>
       <c r="H80">
-        <v>5.263157894736842</v>
+        <v>6.774193548387098</v>
       </c>
       <c r="I80">
-        <v>1.31578947368421</v>
+        <v>6.129032258064516</v>
       </c>
       <c r="J80">
-        <v>2.631578947368421</v>
+        <v>7.419354838709677</v>
       </c>
       <c r="K80">
-        <v>1.31578947368421</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L80">
-        <v>15.78947368421053</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="M80">
-        <v>19.73684210526316</v>
+        <v>13.5483870967742</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3785,18 +3851,45 @@
       <c r="A81">
         <v>8</v>
       </c>
+      <c r="B81">
+        <v>13.34405144694534</v>
+      </c>
+      <c r="C81">
+        <v>6.430868167202572</v>
+      </c>
       <c r="D81">
-        <v>25</v>
+        <v>6.591639871382636</v>
+      </c>
+      <c r="E81">
+        <v>7.717041800643088</v>
       </c>
       <c r="F81">
-        <v>25</v>
+        <v>7.717041800643088</v>
+      </c>
+      <c r="G81">
+        <v>6.270096463022508</v>
       </c>
       <c r="H81">
-        <v>50</v>
+        <v>8.681672025723474</v>
+      </c>
+      <c r="I81">
+        <v>8.842443729903538</v>
+      </c>
+      <c r="J81">
+        <v>8.520900321543408</v>
+      </c>
+      <c r="K81">
+        <v>9.003215434083602</v>
+      </c>
+      <c r="L81">
+        <v>7.556270096463022</v>
+      </c>
+      <c r="M81">
+        <v>9.32475884244373</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3805,44 +3898,44 @@
         <v>9</v>
       </c>
       <c r="B82">
-        <v>7.08502024291498</v>
+        <v>9.324009324009324</v>
       </c>
       <c r="C82">
-        <v>8.502024291497975</v>
+        <v>6.526806526806526</v>
       </c>
       <c r="D82">
-        <v>8.299595141700406</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="E82">
-        <v>8.299595141700406</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="F82">
-        <v>8.704453441295547</v>
+        <v>8.857808857808857</v>
       </c>
       <c r="G82">
-        <v>9.7165991902834</v>
+        <v>6.75990675990676</v>
       </c>
       <c r="H82">
-        <v>9.7165991902834</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="I82">
-        <v>12.14574898785425</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="J82">
-        <v>7.894736842105263</v>
+        <v>8.391608391608392</v>
       </c>
       <c r="K82">
-        <v>6.072874493927126</v>
+        <v>9.557109557109557</v>
       </c>
       <c r="L82">
-        <v>6.477732793522267</v>
+        <v>10.02331002331002</v>
       </c>
       <c r="M82">
-        <v>7.08502024291498</v>
+        <v>5.594405594405594</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3851,44 +3944,44 @@
         <v>10</v>
       </c>
       <c r="B83">
-        <v>4.032258064516129</v>
+        <v>3.91566265060241</v>
       </c>
       <c r="C83">
-        <v>8.870967741935484</v>
+        <v>1.204819277108434</v>
       </c>
       <c r="D83">
-        <v>9.274193548387096</v>
+        <v>10.24096385542169</v>
       </c>
       <c r="E83">
-        <v>11.29032258064516</v>
+        <v>11.44578313253012</v>
       </c>
       <c r="F83">
-        <v>10.08064516129032</v>
+        <v>11.44578313253012</v>
       </c>
       <c r="G83">
-        <v>10.88709677419355</v>
+        <v>13.85542168674699</v>
       </c>
       <c r="H83">
-        <v>14.11290322580645</v>
+        <v>13.55421686746988</v>
       </c>
       <c r="I83">
-        <v>10.48387096774194</v>
+        <v>11.14457831325301</v>
       </c>
       <c r="J83">
-        <v>7.661290322580645</v>
+        <v>9.036144578313253</v>
       </c>
       <c r="K83">
-        <v>5.241935483870968</v>
+        <v>9.638554216867471</v>
       </c>
       <c r="L83">
-        <v>5.64516129032258</v>
+        <v>2.409638554216868</v>
       </c>
       <c r="M83">
-        <v>2.419354838709677</v>
+        <v>2.108433734939759</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3897,44 +3990,44 @@
         <v>11</v>
       </c>
       <c r="B84">
-        <v>7.272727272727272</v>
+        <v>1.93050193050193</v>
       </c>
       <c r="C84">
-        <v>5.454545454545454</v>
+        <v>6.177606177606178</v>
       </c>
       <c r="D84">
-        <v>7.727272727272727</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>10.03861003861004</v>
       </c>
       <c r="F84">
-        <v>10.90909090909091</v>
+        <v>12.74131274131274</v>
       </c>
       <c r="G84">
-        <v>12.27272727272727</v>
+        <v>10.03861003861004</v>
       </c>
       <c r="H84">
-        <v>9.545454545454547</v>
+        <v>10.81081081081081</v>
       </c>
       <c r="I84">
-        <v>9.090909090909092</v>
+        <v>9.266409266409266</v>
       </c>
       <c r="J84">
-        <v>10.45454545454545</v>
+        <v>7.722007722007722</v>
       </c>
       <c r="K84">
-        <v>9.545454545454547</v>
+        <v>8.880308880308881</v>
       </c>
       <c r="L84">
-        <v>4.090909090909091</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="M84">
-        <v>8.636363636363637</v>
+        <v>6.177606177606178</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>2012-2016</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
@@ -3942,495 +4035,24 @@
       <c r="A85">
         <v>12</v>
       </c>
-      <c r="B85">
-        <v>2.830188679245283</v>
-      </c>
-      <c r="C85">
-        <v>6.60377358490566</v>
-      </c>
-      <c r="D85">
-        <v>8.490566037735849</v>
-      </c>
-      <c r="E85">
-        <v>9.433962264150944</v>
-      </c>
-      <c r="F85">
-        <v>15.09433962264151</v>
-      </c>
-      <c r="G85">
-        <v>14.15094339622642</v>
-      </c>
-      <c r="H85">
-        <v>13.20754716981132</v>
-      </c>
       <c r="I85">
-        <v>10.37735849056604</v>
+        <v>37.03703703703704</v>
       </c>
       <c r="J85">
-        <v>11.32075471698113</v>
+        <v>11.11111111111111</v>
+      </c>
+      <c r="K85">
+        <v>18.51851851851852</v>
       </c>
       <c r="L85">
-        <v>3.773584905660377</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="M85">
-        <v>4.716981132075472</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>2012-2016</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>10.13986013986014</v>
-      </c>
-      <c r="C86">
-        <v>13.98601398601399</v>
-      </c>
-      <c r="D86">
-        <v>13.63636363636363</v>
-      </c>
-      <c r="E86">
-        <v>12.58741258741259</v>
-      </c>
-      <c r="F86">
-        <v>8.041958041958042</v>
-      </c>
-      <c r="G86">
-        <v>6.993006993006993</v>
-      </c>
-      <c r="H86">
-        <v>6.993006993006993</v>
-      </c>
-      <c r="I86">
-        <v>5.244755244755245</v>
-      </c>
-      <c r="J86">
-        <v>7.342657342657342</v>
-      </c>
-      <c r="K86">
-        <v>4.545454545454546</v>
-      </c>
-      <c r="L86">
-        <v>6.643356643356643</v>
-      </c>
-      <c r="M86">
-        <v>3.846153846153846</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="C87">
-        <v>7.017543859649122</v>
-      </c>
-      <c r="D87">
-        <v>14.03508771929824</v>
-      </c>
-      <c r="E87">
-        <v>22.80701754385965</v>
-      </c>
-      <c r="F87">
-        <v>17.5438596491228</v>
-      </c>
-      <c r="G87">
-        <v>7.017543859649122</v>
-      </c>
-      <c r="H87">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="I87">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="J87">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="K87">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88">
-        <v>3</v>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89">
-        <v>4</v>
-      </c>
-      <c r="B89">
-        <v>19.53125</v>
-      </c>
-      <c r="C89">
-        <v>2.34375</v>
-      </c>
-      <c r="D89">
-        <v>10.15625</v>
-      </c>
-      <c r="E89">
-        <v>7.8125</v>
-      </c>
-      <c r="F89">
-        <v>10.9375</v>
-      </c>
-      <c r="G89">
-        <v>3.90625</v>
-      </c>
-      <c r="H89">
-        <v>5.46875</v>
-      </c>
-      <c r="I89">
-        <v>6.25</v>
-      </c>
-      <c r="J89">
-        <v>5.46875</v>
-      </c>
-      <c r="K89">
-        <v>9.375</v>
-      </c>
-      <c r="L89">
-        <v>7.8125</v>
-      </c>
-      <c r="M89">
-        <v>10.9375</v>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90">
-        <v>5</v>
-      </c>
-      <c r="B90">
-        <v>17.07317073170732</v>
-      </c>
-      <c r="C90">
-        <v>14.63414634146341</v>
-      </c>
-      <c r="D90">
-        <v>9.75609756097561</v>
-      </c>
-      <c r="E90">
-        <v>9.75609756097561</v>
-      </c>
-      <c r="G90">
-        <v>12.19512195121951</v>
-      </c>
-      <c r="H90">
-        <v>7.317073170731707</v>
-      </c>
-      <c r="J90">
-        <v>17.07317073170732</v>
-      </c>
-      <c r="K90">
-        <v>12.19512195121951</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91">
-        <v>6</v>
-      </c>
-      <c r="C91">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="D91">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="E91">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="G91">
-        <v>5.128205128205128</v>
-      </c>
-      <c r="H91">
-        <v>15.38461538461539</v>
-      </c>
-      <c r="I91">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="J91">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="K91">
-        <v>2.564102564102564</v>
-      </c>
-      <c r="L91">
-        <v>10.25641025641026</v>
-      </c>
-      <c r="M91">
-        <v>12.82051282051282</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92">
-        <v>7</v>
-      </c>
-      <c r="B92">
-        <v>10.42944785276074</v>
-      </c>
-      <c r="C92">
-        <v>10.83844580777096</v>
-      </c>
-      <c r="D92">
-        <v>4.907975460122699</v>
-      </c>
-      <c r="E92">
-        <v>7.361963190184049</v>
-      </c>
-      <c r="F92">
-        <v>6.134969325153374</v>
-      </c>
-      <c r="G92">
-        <v>8.179959100204499</v>
-      </c>
-      <c r="H92">
-        <v>7.770961145194274</v>
-      </c>
-      <c r="I92">
-        <v>9.611451942740286</v>
-      </c>
-      <c r="J92">
-        <v>7.361963190184049</v>
-      </c>
-      <c r="K92">
-        <v>10.83844580777096</v>
-      </c>
-      <c r="L92">
-        <v>5.725971370143149</v>
-      </c>
-      <c r="M92">
-        <v>10.83844580777096</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93">
-        <v>8</v>
-      </c>
-      <c r="B93">
-        <v>14.86928104575163</v>
-      </c>
-      <c r="C93">
-        <v>7.18954248366013</v>
-      </c>
-      <c r="D93">
-        <v>7.516339869281046</v>
-      </c>
-      <c r="E93">
-        <v>7.026143790849673</v>
-      </c>
-      <c r="F93">
-        <v>7.18954248366013</v>
-      </c>
-      <c r="G93">
-        <v>5.228758169934641</v>
-      </c>
-      <c r="H93">
-        <v>8.169934640522875</v>
-      </c>
-      <c r="I93">
-        <v>8.660130718954248</v>
-      </c>
-      <c r="J93">
-        <v>7.84313725490196</v>
-      </c>
-      <c r="K93">
-        <v>9.15032679738562</v>
-      </c>
-      <c r="L93">
-        <v>7.679738562091504</v>
-      </c>
-      <c r="M93">
-        <v>9.477124183006536</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94">
-        <v>9</v>
-      </c>
-      <c r="B94">
-        <v>9.75609756097561</v>
-      </c>
-      <c r="C94">
-        <v>7.804878048780488</v>
-      </c>
-      <c r="D94">
-        <v>7.804878048780488</v>
-      </c>
-      <c r="E94">
-        <v>8.048780487804878</v>
-      </c>
-      <c r="F94">
-        <v>9.268292682926829</v>
-      </c>
-      <c r="G94">
-        <v>6.829268292682928</v>
-      </c>
-      <c r="H94">
-        <v>8.292682926829269</v>
-      </c>
-      <c r="I94">
-        <v>9.75609756097561</v>
-      </c>
-      <c r="J94">
-        <v>8.780487804878048</v>
-      </c>
-      <c r="K94">
-        <v>9.024390243902438</v>
-      </c>
-      <c r="L94">
-        <v>9.75609756097561</v>
-      </c>
-      <c r="M94">
-        <v>4.878048780487805</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95">
-        <v>10</v>
-      </c>
-      <c r="B95">
-        <v>8.783783783783784</v>
-      </c>
-      <c r="C95">
-        <v>2.702702702702703</v>
-      </c>
-      <c r="D95">
-        <v>13.51351351351351</v>
-      </c>
-      <c r="E95">
-        <v>10.13513513513514</v>
-      </c>
-      <c r="F95">
-        <v>8.783783783783784</v>
-      </c>
-      <c r="G95">
-        <v>8.783783783783784</v>
-      </c>
-      <c r="H95">
-        <v>7.432432432432432</v>
-      </c>
-      <c r="I95">
-        <v>6.081081081081082</v>
-      </c>
-      <c r="J95">
-        <v>8.783783783783784</v>
-      </c>
-      <c r="K95">
-        <v>16.89189189189189</v>
-      </c>
-      <c r="L95">
-        <v>4.72972972972973</v>
-      </c>
-      <c r="M95">
-        <v>3.378378378378379</v>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96">
-        <v>11</v>
-      </c>
-      <c r="B96">
-        <v>1.93050193050193</v>
-      </c>
-      <c r="C96">
-        <v>6.177606177606178</v>
-      </c>
-      <c r="D96">
-        <v>10.81081081081081</v>
-      </c>
-      <c r="E96">
-        <v>10.03861003861004</v>
-      </c>
-      <c r="F96">
-        <v>12.74131274131274</v>
-      </c>
-      <c r="G96">
-        <v>10.03861003861004</v>
-      </c>
-      <c r="H96">
-        <v>10.81081081081081</v>
-      </c>
-      <c r="I96">
-        <v>9.266409266409266</v>
-      </c>
-      <c r="J96">
-        <v>7.722007722007722</v>
-      </c>
-      <c r="K96">
-        <v>8.880308880308881</v>
-      </c>
-      <c r="L96">
-        <v>5.405405405405405</v>
-      </c>
-      <c r="M96">
-        <v>6.177606177606178</v>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97">
-        <v>12</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>2017-2021</t>
+          <t>2018-2022</t>
         </is>
       </c>
     </row>
